--- a/capiq_data/in_process_data/IQ34071.xlsx
+++ b/capiq_data/in_process_data/IQ34071.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E020B-947F-468E-83E4-753B48702157}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA0249-ED63-40E5-BD2F-26D9947C667F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5444ad1f-80fa-4222-bb79-036f67c9adef"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"23d381f3-e53c-4f2d-b416-9d0c63457d04"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-39.161000000000001</v>
+        <v>-5.3789999999999996</v>
       </c>
       <c r="D2">
-        <v>165.49700000000001</v>
+        <v>53.579000000000001</v>
       </c>
       <c r="E2">
-        <v>36.558999999999997</v>
+        <v>61.287999999999997</v>
       </c>
       <c r="F2">
-        <v>110.258</v>
+        <v>18.562999999999999</v>
       </c>
       <c r="G2">
-        <v>142.71100000000001</v>
+        <v>82.236000000000004</v>
       </c>
       <c r="H2">
-        <v>3400.1750000000002</v>
+        <v>948.81799999999998</v>
       </c>
       <c r="I2">
-        <v>11.847</v>
+        <v>76.944000000000003</v>
       </c>
       <c r="J2">
-        <v>2827.45</v>
+        <v>281.66699999999997</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>130.584</v>
+        <v>109.71</v>
       </c>
       <c r="O2">
-        <v>3070.0419999999999</v>
+        <v>410.65800000000002</v>
       </c>
       <c r="P2">
-        <v>2828.95</v>
+        <v>284.27300000000002</v>
       </c>
       <c r="Q2">
-        <v>-132.982</v>
+        <v>-109.86</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>330.13299999999998</v>
+        <v>538.16</v>
       </c>
       <c r="U2">
-        <v>64.254000000000005</v>
+        <v>14.98</v>
       </c>
       <c r="V2">
-        <v>58.33</v>
+        <v>25.792000000000002</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-15.782999999999999</v>
+        <v>26.515000000000001</v>
       </c>
       <c r="Y2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-39.161000000000001</v>
+        <v>-5.3789999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-34.250999999999998</v>
+        <v>-22.995999999999999</v>
       </c>
       <c r="D3">
-        <v>167.749</v>
+        <v>52.956000000000003</v>
       </c>
       <c r="E3">
-        <v>35.238999999999997</v>
+        <v>67.313000000000002</v>
       </c>
       <c r="F3">
-        <v>114.672</v>
+        <v>20.81</v>
       </c>
       <c r="G3">
-        <v>171.05500000000001</v>
+        <v>323.279</v>
       </c>
       <c r="H3">
-        <v>3466.2579999999998</v>
+        <v>1349.674</v>
       </c>
       <c r="I3">
-        <v>13.032999999999999</v>
+        <v>46.841999999999999</v>
       </c>
       <c r="J3">
-        <v>3004.9989999999998</v>
+        <v>715.31</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-17.038</v>
+        <v>-105.069</v>
       </c>
       <c r="N3">
-        <v>120.247</v>
+        <v>84.465999999999994</v>
       </c>
       <c r="O3">
-        <v>3240.8049999999998</v>
+        <v>821.27300000000002</v>
       </c>
       <c r="P3">
-        <v>3004.9989999999998</v>
+        <v>715.36</v>
       </c>
       <c r="Q3">
-        <v>30.85</v>
+        <v>235.38499999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>225.453</v>
+        <v>528.40099999999995</v>
       </c>
       <c r="U3">
-        <v>95.103999999999999</v>
+        <v>250.36500000000001</v>
       </c>
       <c r="V3">
-        <v>53.188000000000002</v>
+        <v>-16.66</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>86.400999999999996</v>
+        <v>410.351</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1.6859999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-34.250999999999998</v>
+        <v>-22.995999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-29.818999999999999</v>
+        <v>-23.321000000000002</v>
       </c>
       <c r="D4">
-        <v>171.053</v>
+        <v>57.755000000000003</v>
       </c>
       <c r="E4">
-        <v>33.634</v>
+        <v>71.581000000000003</v>
       </c>
       <c r="F4">
-        <v>119.917</v>
+        <v>23.431000000000001</v>
       </c>
       <c r="G4">
-        <v>349.97800000000001</v>
+        <v>230.54599999999999</v>
       </c>
       <c r="H4">
-        <v>3693.009</v>
+        <v>1414.182</v>
       </c>
       <c r="I4">
-        <v>15.510999999999999</v>
+        <v>54.746000000000002</v>
       </c>
       <c r="J4">
-        <v>3319.3620000000001</v>
+        <v>771.96799999999996</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>129.23099999999999</v>
+        <v>107.93899999999999</v>
       </c>
       <c r="O4">
-        <v>3567.8040000000001</v>
+        <v>899.697</v>
       </c>
       <c r="P4">
-        <v>3324.3620000000001</v>
+        <v>772.68100000000004</v>
       </c>
       <c r="Q4">
-        <v>182.64500000000001</v>
+        <v>-99.49</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>125.205</v>
+        <v>514.48500000000001</v>
       </c>
       <c r="U4">
-        <v>277.74900000000002</v>
+        <v>150.875</v>
       </c>
       <c r="V4">
-        <v>69.700999999999993</v>
+        <v>23.92</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>224.691</v>
+        <v>45.601999999999997</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-1.6859999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-29.818999999999999</v>
+        <v>-23.321000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-33.305</v>
+        <v>-49.118000000000002</v>
       </c>
       <c r="D5">
-        <v>175.54900000000001</v>
+        <v>63.033000000000001</v>
       </c>
       <c r="E5">
-        <v>34.627000000000002</v>
+        <v>69.046999999999997</v>
       </c>
       <c r="F5">
-        <v>122.22799999999999</v>
+        <v>25.923999999999999</v>
       </c>
       <c r="G5">
-        <v>255.267</v>
+        <v>150.81700000000001</v>
       </c>
       <c r="H5">
-        <v>3609.1379999999999</v>
+        <v>1381.107</v>
       </c>
       <c r="I5">
-        <v>15.973000000000001</v>
+        <v>65.632000000000005</v>
       </c>
       <c r="J5">
-        <v>3334.201</v>
+        <v>778.38300000000004</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>132.89400000000001</v>
+        <v>112.32899999999999</v>
       </c>
       <c r="O5">
-        <v>3590.6869999999999</v>
+        <v>911.08799999999997</v>
       </c>
       <c r="P5">
-        <v>3339.201</v>
+        <v>778.67200000000003</v>
       </c>
       <c r="Q5">
-        <v>-98.444000000000003</v>
+        <v>-80.427999999999997</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>18.451000000000001</v>
+        <v>470.01900000000001</v>
       </c>
       <c r="U5">
-        <v>179.30500000000001</v>
+        <v>70.447000000000003</v>
       </c>
       <c r="V5">
-        <v>63.537999999999997</v>
+        <v>7.5810000000000004</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-75.019000000000005</v>
+        <v>-0.157</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-33.305</v>
+        <v>-49.118000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-29.081</v>
+        <v>-29.71</v>
       </c>
       <c r="D6">
-        <v>183.81899999999999</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="E6">
-        <v>39.755000000000003</v>
+        <v>68.129000000000005</v>
       </c>
       <c r="F6">
-        <v>131.28800000000001</v>
+        <v>28.074999999999999</v>
       </c>
       <c r="G6">
-        <v>123.583</v>
+        <v>92.287000000000006</v>
       </c>
       <c r="H6">
-        <v>3606.3989999999999</v>
+        <v>1429.011</v>
       </c>
       <c r="I6">
-        <v>12.755000000000001</v>
+        <v>56.292999999999999</v>
       </c>
       <c r="J6">
-        <v>3349.4850000000001</v>
+        <v>845.08799999999997</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>126.881</v>
+        <v>111.70099999999999</v>
       </c>
       <c r="O6">
-        <v>3605.6480000000001</v>
+        <v>978.36699999999996</v>
       </c>
       <c r="P6">
-        <v>3357.585</v>
+        <v>845.45299999999997</v>
       </c>
       <c r="Q6">
-        <v>-131.989</v>
+        <v>-56.542999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>814</v>
+        <v>1350</v>
       </c>
       <c r="T6">
-        <v>0.751</v>
+        <v>450.64400000000001</v>
       </c>
       <c r="U6">
-        <v>47.316000000000003</v>
+        <v>13.904</v>
       </c>
       <c r="V6">
-        <v>62.631</v>
+        <v>-1.841</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>5.9740000000000002</v>
+        <v>60.401000000000003</v>
       </c>
       <c r="Y6">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-29.081</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-22.631</v>
+        <v>-163.821</v>
       </c>
       <c r="D7">
-        <v>192.49</v>
+        <v>58.237000000000002</v>
       </c>
       <c r="E7">
-        <v>40.908999999999999</v>
+        <v>60.259</v>
       </c>
       <c r="F7">
-        <v>139.953</v>
+        <v>24.32</v>
       </c>
       <c r="G7">
-        <v>598.87099999999998</v>
+        <v>106.7</v>
       </c>
       <c r="H7">
-        <v>4086.6289999999999</v>
+        <v>1422.547</v>
       </c>
       <c r="I7">
-        <v>13.122999999999999</v>
+        <v>38.442</v>
       </c>
       <c r="J7">
-        <v>3565.2260000000001</v>
+        <v>947.22299999999996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1.5409999999999999</v>
+        <v>-0.216</v>
       </c>
       <c r="N7">
-        <v>113.93300000000001</v>
+        <v>76.747</v>
       </c>
       <c r="O7">
-        <v>3815.0129999999999</v>
+        <v>1048.7560000000001</v>
       </c>
       <c r="P7">
-        <v>3570.2260000000001</v>
+        <v>947.41099999999994</v>
       </c>
       <c r="Q7">
-        <v>478.238</v>
+        <v>18.372</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>271.61599999999999</v>
+        <v>373.791</v>
       </c>
       <c r="U7">
-        <v>525.55399999999997</v>
+        <v>32.276000000000003</v>
       </c>
       <c r="V7">
-        <v>66.040000000000006</v>
+        <v>-33.392000000000003</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>488.09100000000001</v>
+        <v>97.858999999999995</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,12 +1346,12 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-22.631</v>
+        <v>-143.905</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -1240,28 +1360,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>229.14699999999999</v>
+        <v>63.604999999999997</v>
       </c>
       <c r="E8">
-        <v>44.348999999999997</v>
+        <v>58.552999999999997</v>
       </c>
       <c r="F8">
-        <v>147.126</v>
+        <v>25.547000000000001</v>
       </c>
       <c r="G8">
-        <v>298.14800000000002</v>
+        <v>101.55800000000001</v>
       </c>
       <c r="H8">
-        <v>4793.66</v>
+        <v>1322.6859999999999</v>
       </c>
       <c r="I8">
-        <v>16.832999999999998</v>
+        <v>28.228000000000002</v>
       </c>
       <c r="J8">
-        <v>3091.3820000000001</v>
+        <v>959.74199999999996</v>
       </c>
       <c r="K8">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,28 +1390,28 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1050.8320000000001</v>
+        <v>96.352000000000004</v>
       </c>
       <c r="O8">
-        <v>4301.4030000000002</v>
+        <v>1076.229</v>
       </c>
       <c r="P8">
-        <v>4009.3879999999999</v>
+        <v>959.86599999999999</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>492.25700000000001</v>
+        <v>246.45699999999999</v>
       </c>
       <c r="U8">
-        <v>86.739000000000004</v>
+        <v>31.314</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>-53.472000000000001</v>
+        <v>-43.082999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-52.445</v>
+        <v>-31.673999999999999</v>
       </c>
       <c r="D9">
-        <v>238.60599999999999</v>
+        <v>60.792000000000002</v>
       </c>
       <c r="E9">
-        <v>54.970999999999997</v>
+        <v>62.018000000000001</v>
       </c>
       <c r="F9">
-        <v>161.208</v>
+        <v>23.882000000000001</v>
       </c>
       <c r="G9">
-        <v>1551.375</v>
+        <v>111.73399999999999</v>
       </c>
       <c r="H9">
-        <v>6083.2910000000002</v>
+        <v>1323.9780000000001</v>
       </c>
       <c r="I9">
         <v>19.863</v>
       </c>
       <c r="J9">
-        <v>4776.4390000000003</v>
+        <v>1009.024</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>688.75</v>
+        <v>79.067999999999998</v>
       </c>
       <c r="O9">
-        <v>5630.9489999999996</v>
+        <v>1108.3989999999999</v>
       </c>
       <c r="P9">
-        <v>5306.0339999999997</v>
+        <v>1011.627</v>
       </c>
       <c r="Q9">
-        <v>1354.306</v>
+        <v>11.035</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>452.34199999999998</v>
+        <v>215.57900000000001</v>
       </c>
       <c r="U9">
-        <v>1441.0450000000001</v>
+        <v>42.348999999999997</v>
       </c>
       <c r="V9">
-        <v>89.722999999999999</v>
+        <v>-13.551</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1228.873</v>
+        <v>37.593000000000004</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>-52.445</v>
+        <v>-31.672999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-52.488999999999997</v>
+        <v>-30.334</v>
       </c>
       <c r="D10">
-        <v>293.84100000000001</v>
+        <v>57.488</v>
       </c>
       <c r="E10">
-        <v>62.743000000000002</v>
+        <v>46.716999999999999</v>
       </c>
       <c r="F10">
-        <v>185.857</v>
+        <v>23.245999999999999</v>
       </c>
       <c r="G10">
-        <v>383.38600000000002</v>
+        <v>315.39600000000002</v>
       </c>
       <c r="H10">
-        <v>6615.9110000000001</v>
+        <v>1303.365</v>
       </c>
       <c r="I10">
-        <v>27.693999999999999</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="J10">
-        <v>4880.7520000000004</v>
+        <v>964.19899999999996</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>863.68799999999999</v>
+        <v>133.53899999999999</v>
       </c>
       <c r="O10">
-        <v>5951.2089999999998</v>
+        <v>1099.875</v>
       </c>
       <c r="P10">
-        <v>5356.1030000000001</v>
+        <v>1024.2819999999999</v>
       </c>
       <c r="Q10">
-        <v>-1207.9459999999999</v>
+        <v>18.792000000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>1022</v>
+        <v>650</v>
       </c>
       <c r="T10">
-        <v>664.702</v>
+        <v>203.49</v>
       </c>
       <c r="U10">
-        <v>233.09899999999999</v>
+        <v>61.140999999999998</v>
       </c>
       <c r="V10">
-        <v>103.33799999999999</v>
+        <v>37.988999999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-2.6930000000000001</v>
+        <v>7.0309999999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-52.488999999999997</v>
+        <v>-30.334</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-22.376000000000001</v>
+        <v>-33.755000000000003</v>
       </c>
       <c r="D11">
-        <v>313.07100000000003</v>
+        <v>47.103000000000002</v>
       </c>
       <c r="E11">
-        <v>76.340999999999994</v>
+        <v>39.533999999999999</v>
       </c>
       <c r="F11">
-        <v>206.554</v>
+        <v>22.106000000000002</v>
       </c>
       <c r="G11">
-        <v>265.77800000000002</v>
+        <v>92.403000000000006</v>
       </c>
       <c r="H11">
-        <v>6449.8850000000002</v>
+        <v>1264.624</v>
       </c>
       <c r="I11">
-        <v>22.713999999999999</v>
+        <v>13.877000000000001</v>
       </c>
       <c r="J11">
-        <v>4885.3389999999999</v>
+        <v>969.10199999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-4.5</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="N11">
-        <v>675.13800000000003</v>
+        <v>120.051</v>
       </c>
       <c r="O11">
-        <v>5753.24</v>
+        <v>1112.6369999999999</v>
       </c>
       <c r="P11">
-        <v>5363.7929999999997</v>
+        <v>1029.1679999999999</v>
       </c>
       <c r="Q11">
-        <v>-110.869</v>
+        <v>-13.284000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>696.64499999999998</v>
+        <v>151.98699999999999</v>
       </c>
       <c r="U11">
-        <v>122.23</v>
+        <v>47.856999999999999</v>
       </c>
       <c r="V11">
-        <v>94.227999999999994</v>
+        <v>-4.8209999999999997</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>37.801000000000002</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>-22.376000000000001</v>
+        <v>-33.755000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-35.899000000000001</v>
+        <v>-67.581999999999994</v>
       </c>
       <c r="D12">
-        <v>324.30500000000001</v>
+        <v>45.976999999999997</v>
       </c>
       <c r="E12">
-        <v>83.436999999999998</v>
+        <v>33.493000000000002</v>
       </c>
       <c r="F12">
-        <v>218.62299999999999</v>
+        <v>22.399000000000001</v>
       </c>
       <c r="G12">
-        <v>346.69600000000003</v>
+        <v>126.218</v>
       </c>
       <c r="H12">
-        <v>6484.5060000000003</v>
+        <v>1082.9670000000001</v>
       </c>
       <c r="I12">
-        <v>24.100999999999999</v>
+        <v>11.523999999999999</v>
       </c>
       <c r="J12">
-        <v>5631.2089999999998</v>
+        <v>888.13</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>212.898</v>
+        <v>87.994</v>
       </c>
       <c r="O12">
-        <v>6048.7690000000002</v>
+        <v>980.30600000000004</v>
       </c>
       <c r="P12">
-        <v>5641.2089999999998</v>
+        <v>894.68799999999999</v>
       </c>
       <c r="Q12">
-        <v>67.212000000000003</v>
+        <v>-25.817</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>435.73700000000002</v>
+        <v>102.661</v>
       </c>
       <c r="U12">
-        <v>189.44200000000001</v>
+        <v>22.04</v>
       </c>
       <c r="V12">
-        <v>133.93100000000001</v>
+        <v>10.387</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>15.196999999999999</v>
+        <v>-142.36199999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>-35.899000000000001</v>
+        <v>-67.581999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>21.527999999999999</v>
+        <v>-19.666</v>
       </c>
       <c r="D13">
-        <v>332.09399999999999</v>
+        <v>47.594000000000001</v>
       </c>
       <c r="E13">
-        <v>99.204999999999998</v>
+        <v>29.11</v>
       </c>
       <c r="F13">
-        <v>225.2</v>
+        <v>22.462</v>
       </c>
       <c r="G13">
-        <v>385.56099999999998</v>
+        <v>100.965</v>
       </c>
       <c r="H13">
-        <v>6584.4279999999999</v>
+        <v>1036.6869999999999</v>
       </c>
       <c r="I13">
-        <v>26.167999999999999</v>
+        <v>13.36</v>
       </c>
       <c r="J13">
-        <v>5637.0780000000004</v>
+        <v>867.59799999999996</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>252.858</v>
+        <v>73.745000000000005</v>
       </c>
       <c r="O13">
-        <v>6135.9989999999998</v>
+        <v>945.24699999999996</v>
       </c>
       <c r="P13">
-        <v>5648.3280000000004</v>
+        <v>880.64</v>
       </c>
       <c r="Q13">
-        <v>-3.3000000000000002E-2</v>
+        <v>13.244999999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>448.42899999999997</v>
+        <v>91.44</v>
       </c>
       <c r="U13">
-        <v>189.40899999999999</v>
+        <v>35.284999999999997</v>
       </c>
       <c r="V13">
-        <v>114.889</v>
+        <v>-25.861999999999998</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>8.5120000000000005</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>21.530999999999999</v>
+        <v>-19.666</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-19.161999999999999</v>
+        <v>-54.145000000000003</v>
       </c>
       <c r="D14">
-        <v>335.39600000000002</v>
+        <v>51.435000000000002</v>
       </c>
       <c r="E14">
-        <v>99.203000000000003</v>
+        <v>29.640999999999998</v>
       </c>
       <c r="F14">
-        <v>227.03800000000001</v>
+        <v>18.666</v>
       </c>
       <c r="G14">
-        <v>338.20600000000002</v>
+        <v>55.064999999999998</v>
       </c>
       <c r="H14">
-        <v>6783.1880000000001</v>
+        <v>958.25199999999995</v>
       </c>
       <c r="I14">
-        <v>24.302</v>
+        <v>11.352</v>
       </c>
       <c r="J14">
-        <v>5394.7209999999995</v>
+        <v>859.22</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>747.673</v>
+        <v>75.947000000000003</v>
       </c>
       <c r="O14">
-        <v>6426.2219999999998</v>
+        <v>959.81799999999998</v>
       </c>
       <c r="P14">
-        <v>5876.607</v>
+        <v>870.75800000000004</v>
       </c>
       <c r="Q14">
-        <v>-67.296999999999997</v>
+        <v>-26.946999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>1117</v>
+        <v>600</v>
       </c>
       <c r="T14">
-        <v>356.96600000000001</v>
+        <v>-1.5660000000000001</v>
       </c>
       <c r="U14">
-        <v>122.11199999999999</v>
+        <v>8.3379999999999992</v>
       </c>
       <c r="V14">
-        <v>154.53899999999999</v>
+        <v>-9.5120000000000005</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>149.327</v>
+        <v>-31.161999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>-19.161999999999999</v>
+        <v>-54.145000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1.407</v>
+        <v>-51.424999999999997</v>
       </c>
       <c r="D15">
-        <v>345.55</v>
+        <v>50.859000000000002</v>
       </c>
       <c r="E15">
-        <v>90.215999999999994</v>
+        <v>28.042000000000002</v>
       </c>
       <c r="F15">
-        <v>239.822</v>
+        <v>22.844999999999999</v>
       </c>
       <c r="G15">
-        <v>511.07400000000001</v>
+        <v>62.689</v>
       </c>
       <c r="H15">
-        <v>7791.3419999999996</v>
+        <v>954.22199999999998</v>
       </c>
       <c r="I15">
-        <v>26.31</v>
+        <v>10.965</v>
       </c>
       <c r="J15">
-        <v>6365.982</v>
+        <v>898.59</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-683</v>
+        <v>-284.39600000000002</v>
       </c>
       <c r="N15">
-        <v>756.779</v>
+        <v>49.279000000000003</v>
       </c>
       <c r="O15">
-        <v>7395.1540000000005</v>
+        <v>951.75599999999997</v>
       </c>
       <c r="P15">
-        <v>6869.7579999999998</v>
+        <v>901.048</v>
       </c>
       <c r="Q15">
-        <v>200.80199999999999</v>
+        <v>10.826000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="T15">
-        <v>396.18799999999999</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="U15">
-        <v>322.91399999999999</v>
+        <v>19.164000000000001</v>
       </c>
       <c r="V15">
-        <v>160.215</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>964.16200000000003</v>
+        <v>10.007</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1.407</v>
+        <v>-51.424999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-9.468</v>
+        <v>-26.646999999999998</v>
       </c>
       <c r="D16">
-        <v>383.42</v>
+        <v>56.347000000000001</v>
       </c>
       <c r="E16">
-        <v>98.486000000000004</v>
+        <v>29.785</v>
       </c>
       <c r="F16">
-        <v>273.75700000000001</v>
+        <v>25.105</v>
       </c>
       <c r="G16">
-        <v>308.19</v>
+        <v>64.991</v>
       </c>
       <c r="H16">
-        <v>7564.5829999999996</v>
+        <v>934.46</v>
       </c>
       <c r="I16">
-        <v>27.501999999999999</v>
+        <v>12.535</v>
       </c>
       <c r="J16">
-        <v>5778.8909999999996</v>
+        <v>889.57299999999998</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1340.01</v>
+        <v>59.66</v>
       </c>
       <c r="O16">
-        <v>7405.2950000000001</v>
+        <v>953.42499999999995</v>
       </c>
       <c r="P16">
-        <v>6859.0910000000003</v>
+        <v>892.827</v>
       </c>
       <c r="Q16">
-        <v>-215.262</v>
+        <v>2.6640000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>159.28800000000001</v>
+        <v>-18.965</v>
       </c>
       <c r="U16">
-        <v>107.652</v>
+        <v>21.827999999999999</v>
       </c>
       <c r="V16">
-        <v>174.73</v>
+        <v>12.545999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-305.16699999999997</v>
+        <v>-12.965999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>-9.4670000000000005</v>
+        <v>-26.646999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-16.623999999999999</v>
+        <v>-27.372</v>
       </c>
       <c r="D17">
-        <v>393.29300000000001</v>
+        <v>58.743000000000002</v>
       </c>
       <c r="E17">
-        <v>106.54</v>
+        <v>31.934000000000001</v>
       </c>
       <c r="F17">
-        <v>281.47500000000002</v>
+        <v>26.702999999999999</v>
       </c>
       <c r="G17">
-        <v>668.84500000000003</v>
+        <v>64.873000000000005</v>
       </c>
       <c r="H17">
-        <v>7808.9920000000002</v>
+        <v>915.48500000000001</v>
       </c>
       <c r="I17">
-        <v>31.324999999999999</v>
+        <v>12.805</v>
       </c>
       <c r="J17">
-        <v>6471.77</v>
+        <v>884.77499999999998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1346.2270000000001</v>
+        <v>53.895000000000003</v>
       </c>
       <c r="O17">
-        <v>8106.6090000000004</v>
+        <v>942.95699999999999</v>
       </c>
       <c r="P17">
-        <v>7550.0879999999997</v>
+        <v>888.02599999999995</v>
       </c>
       <c r="Q17">
-        <v>342.60500000000002</v>
+        <v>-0.83199999999999996</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>-297.61700000000002</v>
+        <v>-27.472000000000001</v>
       </c>
       <c r="U17">
-        <v>450.25700000000001</v>
+        <v>20.995999999999999</v>
       </c>
       <c r="V17">
-        <v>150.34299999999999</v>
+        <v>-0.97</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>331.36799999999999</v>
+        <v>1.595</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>-16.623999999999999</v>
+        <v>-27.372</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0.39</v>
+        <v>-41.835999999999999</v>
       </c>
       <c r="D18">
-        <v>404.73399999999998</v>
+        <v>65.533000000000001</v>
       </c>
       <c r="E18">
-        <v>134.346</v>
+        <v>40.191000000000003</v>
       </c>
       <c r="F18">
-        <v>295.66000000000003</v>
+        <v>28.148</v>
       </c>
       <c r="G18">
-        <v>321.339</v>
+        <v>116.172</v>
       </c>
       <c r="H18">
-        <v>7841.125</v>
+        <v>917.24400000000003</v>
       </c>
       <c r="I18">
-        <v>42.850999999999999</v>
+        <v>15.204000000000001</v>
       </c>
       <c r="J18">
-        <v>7828.299</v>
+        <v>924.45600000000002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,120 +2220,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>331.05</v>
+        <v>51.003</v>
       </c>
       <c r="O18">
-        <v>8501.9249999999993</v>
+        <v>1005.915</v>
       </c>
       <c r="P18">
-        <v>7860.799</v>
+        <v>927.70600000000002</v>
       </c>
       <c r="Q18">
-        <v>-410.81400000000002</v>
+        <v>48.631</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>1259</v>
+        <v>475</v>
       </c>
       <c r="T18">
-        <v>-660.8</v>
+        <v>-88.671000000000006</v>
       </c>
       <c r="U18">
-        <v>39.442999999999998</v>
+        <v>69.626999999999995</v>
       </c>
       <c r="V18">
-        <v>186.35499999999999</v>
+        <v>0.155</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1.4750000000000001</v>
+        <v>47.110999999999997</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>20.888999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.39</v>
+        <v>-41.835999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-79.03</v>
+        <v>-21.713000000000001</v>
       </c>
       <c r="D19">
-        <v>410.09399999999999</v>
+        <v>58.304000000000002</v>
       </c>
       <c r="E19">
-        <v>120.67700000000001</v>
+        <v>31.085000000000001</v>
       </c>
       <c r="F19">
-        <v>297.64499999999998</v>
+        <v>27.01</v>
       </c>
       <c r="G19">
-        <v>320.197</v>
+        <v>56.610999999999997</v>
       </c>
       <c r="H19">
-        <v>7527.299</v>
+        <v>854.03599999999994</v>
       </c>
       <c r="I19">
-        <v>33.805</v>
+        <v>11.26</v>
       </c>
       <c r="J19">
-        <v>7929.8289999999997</v>
+        <v>879.09100000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="M19">
-        <v>-32.5</v>
+        <v>-53.36</v>
       </c>
       <c r="N19">
-        <v>286.476</v>
+        <v>47.335999999999999</v>
       </c>
       <c r="O19">
-        <v>8564.0859999999993</v>
+        <v>958.33900000000006</v>
       </c>
       <c r="P19">
-        <v>7963.5789999999997</v>
+        <v>882.34100000000001</v>
       </c>
       <c r="Q19">
-        <v>22.928000000000001</v>
+        <v>-50.61</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>-1036.787</v>
+        <v>-104.303</v>
       </c>
       <c r="U19">
-        <v>62.371000000000002</v>
+        <v>19.016999999999999</v>
       </c>
       <c r="V19">
-        <v>178.40799999999999</v>
+        <v>15.997999999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-31.529</v>
+        <v>-53.607999999999997</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-79.03</v>
+        <v>-21.713000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>28.305</v>
+        <v>-26.254999999999999</v>
       </c>
       <c r="D20">
-        <v>410.70400000000001</v>
+        <v>63.247999999999998</v>
       </c>
       <c r="E20">
-        <v>117.645</v>
+        <v>37.968000000000004</v>
       </c>
       <c r="F20">
-        <v>292.81200000000001</v>
+        <v>28.568999999999999</v>
       </c>
       <c r="G20">
-        <v>343.78300000000002</v>
+        <v>66.039000000000001</v>
       </c>
       <c r="H20">
-        <v>7751.8630000000003</v>
+        <v>857.13699999999994</v>
       </c>
       <c r="I20">
-        <v>29.809000000000001</v>
+        <v>13.499000000000001</v>
       </c>
       <c r="J20">
-        <v>8216.4</v>
+        <v>826.79600000000005</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>314.05399999999997</v>
+        <v>47.000999999999998</v>
       </c>
       <c r="O20">
-        <v>8885.0949999999993</v>
+        <v>907.05</v>
       </c>
       <c r="P20">
-        <v>8256.4</v>
+        <v>830.04600000000005</v>
       </c>
       <c r="Q20">
-        <v>7.4749999999999996</v>
+        <v>2.105</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>-1133.232</v>
+        <v>-49.912999999999997</v>
       </c>
       <c r="U20">
-        <v>69.846000000000004</v>
+        <v>21.122</v>
       </c>
       <c r="V20">
-        <v>197.124</v>
+        <v>1.766</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>125.313</v>
+        <v>9.9339999999999993</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>28.305</v>
+        <v>-26.254999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-155.94800000000001</v>
+        <v>-14.444000000000001</v>
       </c>
       <c r="D21">
-        <v>410.73500000000001</v>
+        <v>66.021000000000001</v>
       </c>
       <c r="E21">
-        <v>99.183000000000007</v>
+        <v>41.244999999999997</v>
       </c>
       <c r="F21">
-        <v>298.63799999999998</v>
+        <v>31.015999999999998</v>
       </c>
       <c r="G21">
-        <v>334.16899999999998</v>
+        <v>78.968999999999994</v>
       </c>
       <c r="H21">
-        <v>7396.7569999999996</v>
+        <v>885.92899999999997</v>
       </c>
       <c r="I21">
-        <v>32.197000000000003</v>
+        <v>15.097</v>
       </c>
       <c r="J21">
-        <v>8446.85</v>
+        <v>844.01099999999997</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>288.267</v>
+        <v>54.384</v>
       </c>
       <c r="O21">
-        <v>9094.4130000000005</v>
+        <v>932.59799999999996</v>
       </c>
       <c r="P21">
-        <v>8486.85</v>
+        <v>847.26099999999997</v>
       </c>
       <c r="Q21">
-        <v>3.4249999999999998</v>
+        <v>2.355</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>-1697.6559999999999</v>
+        <v>-46.668999999999997</v>
       </c>
       <c r="U21">
-        <v>73.271000000000001</v>
+        <v>23.477</v>
       </c>
       <c r="V21">
-        <v>159.20500000000001</v>
+        <v>18.379000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-15.271000000000001</v>
+        <v>12.348000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-155.946</v>
+        <v>-14.444000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>31.016999999999999</v>
+        <v>-32.296999999999997</v>
       </c>
       <c r="D22">
-        <v>406.94099999999997</v>
+        <v>72.418999999999997</v>
       </c>
       <c r="E22">
-        <v>100.26</v>
+        <v>42.716999999999999</v>
       </c>
       <c r="F22">
-        <v>293.12099999999998</v>
+        <v>33.445</v>
       </c>
       <c r="G22">
-        <v>293.25400000000002</v>
+        <v>112.411</v>
       </c>
       <c r="H22">
-        <v>7312.98</v>
+        <v>952.53599999999994</v>
       </c>
       <c r="I22">
-        <v>27.105</v>
+        <v>17.283000000000001</v>
       </c>
       <c r="J22">
-        <v>8432.07</v>
+        <v>784.39200000000005</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>273.37099999999998</v>
+        <v>52.143000000000001</v>
       </c>
       <c r="O22">
-        <v>9019.1239999999998</v>
+        <v>871.10500000000002</v>
       </c>
       <c r="P22">
-        <v>8452.07</v>
+        <v>784.39200000000005</v>
       </c>
       <c r="Q22">
-        <v>14.895</v>
+        <v>22.457000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>1310</v>
+        <v>515</v>
       </c>
       <c r="T22">
-        <v>-1706.144</v>
+        <v>81.430999999999997</v>
       </c>
       <c r="U22">
-        <v>118.039</v>
+        <v>45.933999999999997</v>
       </c>
       <c r="V22">
-        <v>188.29300000000001</v>
+        <v>13.624000000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-2.762</v>
+        <v>57.149000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>89.727999999999994</v>
+        <v>-19.632000000000001</v>
       </c>
       <c r="AA22">
-        <v>31.016999999999999</v>
+        <v>-32.296999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>53.639000000000003</v>
+        <v>-9.2050000000000001</v>
       </c>
       <c r="D23">
-        <v>399.76900000000001</v>
+        <v>68.804000000000002</v>
       </c>
       <c r="E23">
-        <v>100.26300000000001</v>
+        <v>41.341999999999999</v>
       </c>
       <c r="F23">
-        <v>293.99200000000002</v>
+        <v>34.540999999999997</v>
       </c>
       <c r="G23">
-        <v>281.84399999999999</v>
+        <v>118.66500000000001</v>
       </c>
       <c r="H23">
-        <v>7371.6440000000002</v>
+        <v>950.12199999999996</v>
       </c>
       <c r="I23">
-        <v>20.716000000000001</v>
+        <v>13.502000000000001</v>
       </c>
       <c r="J23">
-        <v>8452.27</v>
+        <v>789.65700000000004</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,84 +2632,84 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>233.06899999999999</v>
+        <v>48.468000000000004</v>
       </c>
       <c r="O23">
-        <v>9002.2039999999997</v>
+        <v>874.03099999999995</v>
       </c>
       <c r="P23">
-        <v>8472.27</v>
+        <v>789.65700000000004</v>
       </c>
       <c r="Q23">
-        <v>-14.986000000000001</v>
+        <v>13.94</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>-1630.56</v>
+        <v>76.090999999999994</v>
       </c>
       <c r="U23">
-        <v>103.26600000000001</v>
+        <v>59.874000000000002</v>
       </c>
       <c r="V23">
-        <v>144.64400000000001</v>
+        <v>15.212</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-33.323</v>
+        <v>9.2530000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AA23">
-        <v>53.639000000000003</v>
+        <v>-9.2050000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>32.709000000000003</v>
+        <v>-75.638000000000005</v>
       </c>
       <c r="D24">
-        <v>405.53199999999998</v>
+        <v>87.376000000000005</v>
       </c>
       <c r="E24">
-        <v>77.790000000000006</v>
+        <v>44.398000000000003</v>
       </c>
       <c r="F24">
-        <v>296.14400000000001</v>
+        <v>47.2</v>
       </c>
       <c r="G24">
-        <v>291.03800000000001</v>
+        <v>137.12</v>
       </c>
       <c r="H24">
-        <v>7436.3220000000001</v>
+        <v>2008.8820000000001</v>
       </c>
       <c r="I24">
-        <v>25.524000000000001</v>
+        <v>13.599</v>
       </c>
       <c r="J24">
-        <v>7913.8789999999999</v>
+        <v>405</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>804.90599999999995</v>
+        <v>1157.682</v>
       </c>
       <c r="O24">
-        <v>9043.8989999999994</v>
+        <v>1604.096</v>
       </c>
       <c r="P24">
-        <v>8482.8029999999999</v>
+        <v>1505</v>
       </c>
       <c r="Q24">
-        <v>31.003</v>
+        <v>1.722</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-1607.577</v>
+        <v>404.786</v>
       </c>
       <c r="U24">
-        <v>133.95599999999999</v>
+        <v>61.595999999999997</v>
       </c>
       <c r="V24">
-        <v>210.09100000000001</v>
+        <v>10.010999999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-90.977000000000004</v>
+        <v>656.85699999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>32.710999999999999</v>
+        <v>-75.638000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-15.372</v>
+        <v>-24.34</v>
       </c>
       <c r="D25">
-        <v>411.31900000000002</v>
+        <v>98.171999999999997</v>
       </c>
       <c r="E25">
-        <v>86.647999999999996</v>
+        <v>44.106000000000002</v>
       </c>
       <c r="F25">
-        <v>302.88099999999997</v>
+        <v>56.018000000000001</v>
       </c>
       <c r="G25">
-        <v>857.97799999999995</v>
+        <v>103.399</v>
       </c>
       <c r="H25">
-        <v>7915.7219999999998</v>
+        <v>2002.1289999999999</v>
       </c>
       <c r="I25">
-        <v>23.904</v>
+        <v>10.948</v>
       </c>
       <c r="J25">
-        <v>8515.3919999999998</v>
+        <v>1505</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>738.76599999999996</v>
+        <v>65.45</v>
       </c>
       <c r="O25">
-        <v>9584.7839999999997</v>
+        <v>1614.164</v>
       </c>
       <c r="P25">
-        <v>9031.268</v>
+        <v>1505</v>
       </c>
       <c r="Q25">
-        <v>558.29499999999996</v>
+        <v>-21.181000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>-1669.0619999999999</v>
+        <v>387.96499999999997</v>
       </c>
       <c r="U25">
-        <v>165.22499999999999</v>
+        <v>40.414999999999999</v>
       </c>
       <c r="V25">
-        <v>172.49600000000001</v>
+        <v>13.048999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>457.834</v>
+        <v>3.0129999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>-15.37</v>
+        <v>-24.341000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>5.2619999999999996</v>
+        <v>-24.265000000000001</v>
       </c>
       <c r="D26">
-        <v>416.505</v>
+        <v>96.75</v>
       </c>
       <c r="E26">
-        <v>89.471000000000004</v>
+        <v>40.183999999999997</v>
       </c>
       <c r="F26">
-        <v>306.072</v>
+        <v>56.756999999999998</v>
       </c>
       <c r="G26">
-        <v>324.57100000000003</v>
+        <v>127.607</v>
       </c>
       <c r="H26">
-        <v>7360.9449999999997</v>
+        <v>2046.2919999999999</v>
       </c>
       <c r="I26">
-        <v>28.32</v>
+        <v>9.7460000000000004</v>
       </c>
       <c r="J26">
-        <v>8148.4260000000004</v>
+        <v>1555</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>873.447</v>
+        <v>58.353999999999999</v>
       </c>
       <c r="O26">
-        <v>9356.866</v>
+        <v>1660.3710000000001</v>
       </c>
       <c r="P26">
-        <v>8775.5830000000005</v>
+        <v>1555</v>
       </c>
       <c r="Q26">
-        <v>-534.96100000000001</v>
+        <v>5.7329999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>1241</v>
+        <v>615</v>
       </c>
       <c r="T26">
-        <v>-1995.921</v>
+        <v>385.92099999999999</v>
       </c>
       <c r="U26">
-        <v>146.10900000000001</v>
+        <v>46.148000000000003</v>
       </c>
       <c r="V26">
-        <v>215.29400000000001</v>
+        <v>35.457999999999998</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-622.09100000000001</v>
+        <v>-4.2859999999999996</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.71199999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>5.2619999999999996</v>
+        <v>-24.265000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>37.597999999999999</v>
+        <v>-16.393999999999998</v>
       </c>
       <c r="D27">
-        <v>423.363</v>
+        <v>95.808000000000007</v>
       </c>
       <c r="E27">
-        <v>87.322000000000003</v>
+        <v>35.747999999999998</v>
       </c>
       <c r="F27">
-        <v>309.42399999999998</v>
+        <v>58.341999999999999</v>
       </c>
       <c r="G27">
-        <v>301.267</v>
+        <v>294.72800000000001</v>
       </c>
       <c r="H27">
-        <v>7297.45</v>
+        <v>2246.1840000000002</v>
       </c>
       <c r="I27">
-        <v>29.628</v>
+        <v>7.6760000000000002</v>
       </c>
       <c r="J27">
-        <v>8646.1740000000009</v>
+        <v>1905</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>228.59299999999999</v>
+        <v>55.616</v>
       </c>
       <c r="O27">
-        <v>9213.9439999999995</v>
+        <v>2013.7940000000001</v>
       </c>
       <c r="P27">
-        <v>8666.1740000000009</v>
+        <v>1905</v>
       </c>
       <c r="Q27">
-        <v>-20.498999999999999</v>
+        <v>173.33600000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-1916.4939999999999</v>
+        <v>232.39</v>
       </c>
       <c r="U27">
-        <v>132.22200000000001</v>
+        <v>219.48400000000001</v>
       </c>
       <c r="V27">
-        <v>172.30600000000001</v>
+        <v>26.547999999999998</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-112.27200000000001</v>
+        <v>204.595</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>37.597999999999999</v>
+        <v>-16.393999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>9.234</v>
+        <v>-15.071999999999999</v>
       </c>
       <c r="D28">
-        <v>427.29399999999998</v>
+        <v>100.289</v>
       </c>
       <c r="E28">
-        <v>88.043000000000006</v>
+        <v>39.143999999999998</v>
       </c>
       <c r="F28">
-        <v>315.64400000000001</v>
+        <v>61.039000000000001</v>
       </c>
       <c r="G28">
-        <v>336.464</v>
+        <v>175.69</v>
       </c>
       <c r="H28">
-        <v>7308.8530000000001</v>
+        <v>2253.5039999999999</v>
       </c>
       <c r="I28">
-        <v>29.155000000000001</v>
+        <v>7.3849999999999998</v>
       </c>
       <c r="J28">
-        <v>7906.1880000000001</v>
+        <v>1905</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1046.4190000000001</v>
+        <v>58.542999999999999</v>
       </c>
       <c r="O28">
-        <v>9294.5339999999997</v>
+        <v>2018.633</v>
       </c>
       <c r="P28">
-        <v>8678.7049999999999</v>
+        <v>1905</v>
       </c>
       <c r="Q28">
-        <v>31.722000000000001</v>
+        <v>-121.95</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-1985.681</v>
+        <v>234.87100000000001</v>
       </c>
       <c r="U28">
-        <v>164.52099999999999</v>
+        <v>97.534000000000006</v>
       </c>
       <c r="V28">
-        <v>231.893</v>
+        <v>26.731999999999999</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-111.83799999999999</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="AA28">
-        <v>9.2330000000000005</v>
+        <v>-15.071999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>49.161999999999999</v>
+        <v>-17.533999999999999</v>
       </c>
       <c r="D29">
-        <v>433.94499999999999</v>
+        <v>103.20099999999999</v>
       </c>
       <c r="E29">
-        <v>99.924999999999997</v>
+        <v>42.692</v>
       </c>
       <c r="F29">
-        <v>320.89400000000001</v>
+        <v>59.548999999999999</v>
       </c>
       <c r="G29">
-        <v>324.06599999999997</v>
+        <v>128.11500000000001</v>
       </c>
       <c r="H29">
-        <v>7300.47</v>
+        <v>2301.297</v>
       </c>
       <c r="I29">
-        <v>32.429000000000002</v>
+        <v>8.3810000000000002</v>
       </c>
       <c r="J29">
-        <v>8185.5119999999997</v>
+        <v>1905</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1022.715</v>
+        <v>62.942999999999998</v>
       </c>
       <c r="O29">
-        <v>9558.268</v>
+        <v>2026.2539999999999</v>
       </c>
       <c r="P29">
-        <v>8958.8009999999995</v>
+        <v>1905</v>
       </c>
       <c r="Q29">
-        <v>-24.731000000000002</v>
+        <v>-54.173000000000002</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>-2257.7979999999998</v>
+        <v>275.04300000000001</v>
       </c>
       <c r="U29">
-        <v>139.71100000000001</v>
+        <v>43.360999999999997</v>
       </c>
       <c r="V29">
-        <v>187.273</v>
+        <v>28.884</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-93.492000000000004</v>
+        <v>-1.9810000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-0.38200000000000001</v>
+        <v>-19.899000000000001</v>
       </c>
       <c r="AA29">
-        <v>49.161000000000001</v>
+        <v>-17.533999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>7.66</v>
+        <v>-28.879000000000001</v>
       </c>
       <c r="D30">
-        <v>443.072</v>
+        <v>108.90300000000001</v>
       </c>
       <c r="E30">
-        <v>108.11</v>
+        <v>41.636000000000003</v>
       </c>
       <c r="F30">
-        <v>323.03300000000002</v>
+        <v>65.918000000000006</v>
       </c>
       <c r="G30">
-        <v>259.53300000000002</v>
+        <v>158.07</v>
       </c>
       <c r="H30">
-        <v>7320.2049999999999</v>
+        <v>2384.3229999999999</v>
       </c>
       <c r="I30">
-        <v>33.334000000000003</v>
+        <v>11.356999999999999</v>
       </c>
       <c r="J30">
-        <v>9290.6859999999997</v>
+        <v>1905</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>278.90499999999997</v>
+        <v>76.17</v>
       </c>
       <c r="O30">
-        <v>9919.3189999999995</v>
+        <v>2046.932</v>
       </c>
       <c r="P30">
-        <v>9310.6859999999997</v>
+        <v>1905</v>
       </c>
       <c r="Q30">
-        <v>-68.167000000000002</v>
+        <v>26.911000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>1291</v>
+        <v>617</v>
       </c>
       <c r="T30">
-        <v>-2599.114</v>
+        <v>337.39100000000002</v>
       </c>
       <c r="U30">
-        <v>68.783000000000001</v>
+        <v>70.272000000000006</v>
       </c>
       <c r="V30">
-        <v>226.99799999999999</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>23.027999999999999</v>
+        <v>-3.9</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.216</v>
+        <v>50.198999999999998</v>
       </c>
       <c r="AA30">
-        <v>7.66</v>
+        <v>-28.879000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>31.545000000000002</v>
+        <v>-19.225999999999999</v>
       </c>
       <c r="D31">
-        <v>458.30200000000002</v>
+        <v>109.917</v>
       </c>
       <c r="E31">
-        <v>114.142</v>
+        <v>36.951999999999998</v>
       </c>
       <c r="F31">
-        <v>339.92099999999999</v>
+        <v>69.682000000000002</v>
       </c>
       <c r="G31">
-        <v>302.77999999999997</v>
+        <v>207.74799999999999</v>
       </c>
       <c r="H31">
-        <v>7405.0820000000003</v>
+        <v>2406.902</v>
       </c>
       <c r="I31">
-        <v>29.553999999999998</v>
+        <v>10.641</v>
       </c>
       <c r="J31">
-        <v>9363.6859999999997</v>
+        <v>1945</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-825</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>250.928</v>
+        <v>68.834999999999994</v>
       </c>
       <c r="O31">
-        <v>9993.3230000000003</v>
+        <v>2081.0149999999999</v>
       </c>
       <c r="P31">
-        <v>9383.6859999999997</v>
+        <v>1945</v>
       </c>
       <c r="Q31">
-        <v>60.524999999999999</v>
+        <v>56.710999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-2588.241</v>
+        <v>325.887</v>
       </c>
       <c r="U31">
-        <v>109.35</v>
+        <v>126.983</v>
       </c>
       <c r="V31">
-        <v>178.577</v>
+        <v>34.744999999999997</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>34.048999999999999</v>
+        <v>40.406999999999996</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-0.68600000000000005</v>
+        <v>40.9</v>
       </c>
       <c r="AA31">
-        <v>31.545000000000002</v>
+        <v>-19.225999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-57.390999999999998</v>
+        <v>-26.242999999999999</v>
       </c>
       <c r="D32">
-        <v>456.32299999999998</v>
+        <v>111.952</v>
       </c>
       <c r="E32">
-        <v>101.15600000000001</v>
+        <v>30.72</v>
       </c>
       <c r="F32">
-        <v>338.77600000000001</v>
+        <v>72.590999999999994</v>
       </c>
       <c r="G32">
-        <v>326.87599999999998</v>
+        <v>283.07100000000003</v>
       </c>
       <c r="H32">
-        <v>7289.3779999999997</v>
+        <v>2733.1089999999999</v>
       </c>
       <c r="I32">
-        <v>32.381999999999998</v>
+        <v>10.141999999999999</v>
       </c>
       <c r="J32">
-        <v>9675.7379999999994</v>
+        <v>2455</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>277.81</v>
+        <v>74.338999999999999</v>
       </c>
       <c r="O32">
-        <v>10331.513000000001</v>
+        <v>2603.1439999999998</v>
       </c>
       <c r="P32">
-        <v>9699.7379999999994</v>
+        <v>2455</v>
       </c>
       <c r="Q32">
-        <v>11.542999999999999</v>
+        <v>80.287000000000006</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-3042.1350000000002</v>
+        <v>129.965</v>
       </c>
       <c r="U32">
-        <v>134.65100000000001</v>
+        <v>207.27</v>
       </c>
       <c r="V32">
-        <v>246.47900000000001</v>
+        <v>45.366</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-7.3319999999999999</v>
+        <v>299.58300000000003</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-4.1059999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-57.390999999999998</v>
+        <v>-26.242999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>16.143999999999998</v>
+        <v>-27.648</v>
       </c>
       <c r="D33">
-        <v>467.221</v>
+        <v>118.65600000000001</v>
       </c>
       <c r="E33">
-        <v>107.101</v>
+        <v>26.960999999999999</v>
       </c>
       <c r="F33">
-        <v>347.48500000000001</v>
+        <v>76.570999999999998</v>
       </c>
       <c r="G33">
-        <v>327.66300000000001</v>
+        <v>514.28499999999997</v>
       </c>
       <c r="H33">
-        <v>7213.8230000000003</v>
+        <v>3387.848</v>
       </c>
       <c r="I33">
-        <v>32.087000000000003</v>
+        <v>10.355</v>
       </c>
       <c r="J33">
-        <v>9710.1450000000004</v>
+        <v>2821.9479999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>265.512</v>
+        <v>100.827</v>
       </c>
       <c r="O33">
-        <v>10358.906000000001</v>
+        <v>3000.558</v>
       </c>
       <c r="P33">
-        <v>9734.1450000000004</v>
+        <v>2827.4479999999999</v>
       </c>
       <c r="Q33">
-        <v>-13.039</v>
+        <v>231.88499999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>-3145.0830000000001</v>
+        <v>387.29</v>
       </c>
       <c r="U33">
-        <v>136.221</v>
+        <v>439.15499999999997</v>
       </c>
       <c r="V33">
-        <v>199.08699999999999</v>
+        <v>53.997999999999998</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-57.905999999999999</v>
+        <v>223.839</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.85899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>16.143999999999998</v>
+        <v>-27.648</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>57.152999999999999</v>
+        <v>5.9530000000000003</v>
       </c>
       <c r="D34">
-        <v>483.84899999999999</v>
+        <v>134.429</v>
       </c>
       <c r="E34">
-        <v>134.82</v>
+        <v>27.009</v>
       </c>
       <c r="F34">
-        <v>359.75700000000001</v>
+        <v>87.825000000000003</v>
       </c>
       <c r="G34">
-        <v>373.85399999999998</v>
+        <v>154.15299999999999</v>
       </c>
       <c r="H34">
-        <v>7213.7070000000003</v>
+        <v>3207.8290000000002</v>
       </c>
       <c r="I34">
-        <v>34.308</v>
+        <v>8.9629999999999992</v>
       </c>
       <c r="J34">
-        <v>8996.8250000000007</v>
+        <v>2386.23</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1206.279</v>
+        <v>90.593999999999994</v>
       </c>
       <c r="O34">
-        <v>10590.53</v>
+        <v>2557.319</v>
       </c>
       <c r="P34">
-        <v>9938.5529999999999</v>
+        <v>2392.23</v>
       </c>
       <c r="Q34">
-        <v>14.976000000000001</v>
+        <v>-360.29899999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>1347</v>
+        <v>627</v>
       </c>
       <c r="T34">
-        <v>-3376.8229999999999</v>
+        <v>650.51</v>
       </c>
       <c r="U34">
-        <v>143.44399999999999</v>
+        <v>78.855999999999995</v>
       </c>
       <c r="V34">
-        <v>226.47499999999999</v>
+        <v>39.587000000000003</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-117.348</v>
+        <v>-148.392</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-2.16</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AA34">
-        <v>57.152999999999999</v>
+        <v>5.9530000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>25.989000000000001</v>
+        <v>-17.89</v>
       </c>
       <c r="D35">
-        <v>493.29300000000001</v>
+        <v>135.05000000000001</v>
       </c>
       <c r="E35">
-        <v>136.499</v>
+        <v>25.28</v>
       </c>
       <c r="F35">
-        <v>367.041</v>
+        <v>90.078000000000003</v>
       </c>
       <c r="G35">
-        <v>300.56900000000002</v>
+        <v>160.571</v>
       </c>
       <c r="H35">
-        <v>9312.759</v>
+        <v>3172.02</v>
       </c>
       <c r="I35">
-        <v>34.545000000000002</v>
+        <v>10.068</v>
       </c>
       <c r="J35">
-        <v>8795.9060000000009</v>
+        <v>2348.069</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-215</v>
+        <v>-37.618000000000002</v>
       </c>
       <c r="N35">
-        <v>1404.654</v>
+        <v>91.802999999999997</v>
       </c>
       <c r="O35">
-        <v>12615.54</v>
+        <v>2521.8710000000001</v>
       </c>
       <c r="P35">
-        <v>12249.927</v>
+        <v>2354.069</v>
       </c>
       <c r="Q35">
-        <v>-34.429000000000002</v>
+        <v>10.928000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-3302.7809999999999</v>
+        <v>650.149</v>
       </c>
       <c r="U35">
-        <v>117.613</v>
+        <v>89.784000000000006</v>
       </c>
       <c r="V35">
-        <v>222.66499999999999</v>
+        <v>49.283999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-158.047</v>
+        <v>-32.884999999999998</v>
       </c>
       <c r="Y35">
-        <v>2282.8029999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>25.989000000000001</v>
+        <v>-17.89</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>31.972999999999999</v>
+        <v>-29.361999999999998</v>
       </c>
       <c r="D36">
-        <v>500.14699999999999</v>
+        <v>136.19499999999999</v>
       </c>
       <c r="E36">
-        <v>143.05099999999999</v>
+        <v>23.353999999999999</v>
       </c>
       <c r="F36">
-        <v>373.16</v>
+        <v>91.013000000000005</v>
       </c>
       <c r="G36">
-        <v>290.19200000000001</v>
+        <v>243.15299999999999</v>
       </c>
       <c r="H36">
-        <v>9269.4150000000009</v>
+        <v>3255.511</v>
       </c>
       <c r="I36">
-        <v>41.27</v>
+        <v>9.6690000000000005</v>
       </c>
       <c r="J36">
-        <v>8801.0499999999993</v>
+        <v>2383.587</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1428.1379999999999</v>
+        <v>96.971000000000004</v>
       </c>
       <c r="O36">
-        <v>12608.761</v>
+        <v>2568.384</v>
       </c>
       <c r="P36">
-        <v>12211.415999999999</v>
+        <v>2389.587</v>
       </c>
       <c r="Q36">
-        <v>-17.059000000000001</v>
+        <v>84.444999999999993</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-3339.346</v>
+        <v>687.12699999999995</v>
       </c>
       <c r="U36">
-        <v>101.836</v>
+        <v>174.22900000000001</v>
       </c>
       <c r="V36">
-        <v>243.441</v>
+        <v>58.161999999999999</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-106.416</v>
+        <v>69.53</v>
       </c>
       <c r="Y36">
-        <v>2235.5239999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-30.545999999999999</v>
+        <v>-3.6040000000000001</v>
       </c>
       <c r="AA36">
-        <v>31.972999999999999</v>
+        <v>-29.36</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>21.678000000000001</v>
+        <v>-50.109000000000002</v>
       </c>
       <c r="D37">
-        <v>507.54700000000003</v>
+        <v>139.28899999999999</v>
       </c>
       <c r="E37">
-        <v>151.02799999999999</v>
+        <v>25.811</v>
       </c>
       <c r="F37">
-        <v>379.346</v>
+        <v>93.102000000000004</v>
       </c>
       <c r="G37">
-        <v>328.59800000000001</v>
+        <v>348.41399999999999</v>
       </c>
       <c r="H37">
-        <v>9201.1380000000008</v>
+        <v>3351.6030000000001</v>
       </c>
       <c r="I37">
-        <v>35.130000000000003</v>
+        <v>10.141999999999999</v>
       </c>
       <c r="J37">
-        <v>9883.902</v>
+        <v>2508.4189999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>510.15199999999999</v>
+        <v>114.254</v>
       </c>
       <c r="O37">
-        <v>12747.434999999999</v>
+        <v>2713.6529999999998</v>
       </c>
       <c r="P37">
-        <v>12312.611000000001</v>
+        <v>2508.4189999999999</v>
       </c>
       <c r="Q37">
-        <v>31.867999999999999</v>
+        <v>111.614</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>-3546.297</v>
+        <v>637.95000000000005</v>
       </c>
       <c r="U37">
-        <v>128.77799999999999</v>
+        <v>285.84300000000002</v>
       </c>
       <c r="V37">
-        <v>238.87799999999999</v>
+        <v>62.354999999999997</v>
       </c>
       <c r="W37">
-        <v>-41.872999999999998</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-43.118000000000002</v>
+        <v>88.838999999999999</v>
       </c>
       <c r="Y37">
-        <v>2174.5120000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>16.684000000000001</v>
+        <v>-2.56</v>
       </c>
       <c r="AA37">
-        <v>21.678999999999998</v>
+        <v>-50.109000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>67.350999999999999</v>
+        <v>-43.51</v>
       </c>
       <c r="D38">
-        <v>513.65800000000002</v>
+        <v>144.97999999999999</v>
       </c>
       <c r="E38">
-        <v>158.43799999999999</v>
+        <v>19.643999999999998</v>
       </c>
       <c r="F38">
-        <v>386.84100000000001</v>
+        <v>95.971999999999994</v>
       </c>
       <c r="G38">
-        <v>334.27100000000002</v>
+        <v>231.48599999999999</v>
       </c>
       <c r="H38">
-        <v>9759.9410000000007</v>
+        <v>3313.6460000000002</v>
       </c>
       <c r="I38">
-        <v>31.846</v>
+        <v>9.2189999999999994</v>
       </c>
       <c r="J38">
-        <v>9902.616</v>
+        <v>2460.402</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1048.2929999999999</v>
+        <v>158.72499999999999</v>
       </c>
       <c r="O38">
-        <v>13410.896000000001</v>
+        <v>2713.6970000000001</v>
       </c>
       <c r="P38">
-        <v>12951.120999999999</v>
+        <v>2490.0500000000002</v>
       </c>
       <c r="Q38">
-        <v>-17.559999999999999</v>
+        <v>-124.526</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>1475</v>
+        <v>617</v>
       </c>
       <c r="T38">
-        <v>-3650.9549999999999</v>
+        <v>599.94899999999996</v>
       </c>
       <c r="U38">
-        <v>108.309</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="V38">
-        <v>265.06099999999998</v>
+        <v>52.756999999999998</v>
       </c>
       <c r="W38">
-        <v>-41.514000000000003</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>245.267</v>
+        <v>-36.506</v>
       </c>
       <c r="Y38">
-        <v>2279.4</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.20200000000000001</v>
+        <v>-2.02</v>
       </c>
       <c r="AA38">
-        <v>67.350999999999999</v>
+        <v>-43.51</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-127.05800000000001</v>
+        <v>-37.326000000000001</v>
       </c>
       <c r="D39">
-        <v>517.06700000000001</v>
+        <v>147.965</v>
       </c>
       <c r="E39">
-        <v>126.023</v>
+        <v>25.802</v>
       </c>
       <c r="F39">
-        <v>397.75400000000002</v>
+        <v>98.837999999999994</v>
       </c>
       <c r="G39">
-        <v>395.05799999999999</v>
+        <v>180.95400000000001</v>
       </c>
       <c r="H39">
-        <v>9359.5020000000004</v>
+        <v>3270.6410000000001</v>
       </c>
       <c r="I39">
-        <v>26.939</v>
+        <v>10.702999999999999</v>
       </c>
       <c r="J39">
-        <v>10309.252</v>
+        <v>2472.2350000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1264.143</v>
+        <v>-2.0859999999999999</v>
       </c>
       <c r="N39">
-        <v>1019.552</v>
+        <v>139.238</v>
       </c>
       <c r="O39">
-        <v>13662.254000000001</v>
+        <v>2708.3339999999998</v>
       </c>
       <c r="P39">
-        <v>13217.245000000001</v>
+        <v>2502.451</v>
       </c>
       <c r="Q39">
-        <v>88.495000000000005</v>
+        <v>-43.042999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-4302.7520000000004</v>
+        <v>562.30700000000002</v>
       </c>
       <c r="U39">
-        <v>184.137</v>
+        <v>118.274</v>
       </c>
       <c r="V39">
-        <v>277.74200000000002</v>
+        <v>37.417999999999999</v>
       </c>
       <c r="W39">
-        <v>-52.201000000000001</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-43.335000000000001</v>
+        <v>-7.7089999999999996</v>
       </c>
       <c r="Y39">
-        <v>2153.9169999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z39">
-        <v>-1.2E-2</v>
+        <v>-30.283000000000001</v>
       </c>
       <c r="AA39">
-        <v>-127.05800000000001</v>
+        <v>-37.326000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>22.811</v>
+        <v>-83.698999999999998</v>
       </c>
       <c r="D40">
-        <v>507.226</v>
+        <v>154.51499999999999</v>
       </c>
       <c r="E40">
-        <v>110.172</v>
+        <v>30.867000000000001</v>
       </c>
       <c r="F40">
-        <v>391.09</v>
+        <v>103.152</v>
       </c>
       <c r="G40">
-        <v>398.233</v>
+        <v>298.87700000000001</v>
       </c>
       <c r="H40">
-        <v>9390.5390000000007</v>
+        <v>3433.6889999999999</v>
       </c>
       <c r="I40">
-        <v>26.353000000000002</v>
+        <v>10.077999999999999</v>
       </c>
       <c r="J40">
-        <v>10831.087</v>
+        <v>2777.8389999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>552.65899999999999</v>
+        <v>156.81700000000001</v>
       </c>
       <c r="O40">
-        <v>13681.182000000001</v>
+        <v>3035.8649999999998</v>
       </c>
       <c r="P40">
-        <v>13198.539000000001</v>
+        <v>2807.43</v>
       </c>
       <c r="Q40">
-        <v>22.023</v>
+        <v>109.66500000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-4290.643</v>
+        <v>397.82400000000001</v>
       </c>
       <c r="U40">
-        <v>207.48699999999999</v>
+        <v>227.93899999999999</v>
       </c>
       <c r="V40">
-        <v>314.67599999999999</v>
+        <v>60.716999999999999</v>
       </c>
       <c r="W40">
-        <v>-51.97</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-8.7859999999999996</v>
+        <v>147.239</v>
       </c>
       <c r="Y40">
-        <v>2113.6019999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-225.01400000000001</v>
+        <v>-0.66</v>
       </c>
       <c r="AA40">
-        <v>22.812999999999999</v>
+        <v>-83.698999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>22.568999999999999</v>
+        <v>-34.488</v>
       </c>
       <c r="D41">
-        <v>522.94000000000005</v>
+        <v>158.642</v>
       </c>
       <c r="E41">
-        <v>95.150999999999996</v>
+        <v>34.238</v>
       </c>
       <c r="F41">
-        <v>397.29700000000003</v>
+        <v>104.812</v>
       </c>
       <c r="G41">
-        <v>458.59100000000001</v>
+        <v>274.61500000000001</v>
       </c>
       <c r="H41">
-        <v>9034.6820000000007</v>
+        <v>3423.9360000000001</v>
       </c>
       <c r="I41">
-        <v>29.23</v>
+        <v>15.17</v>
       </c>
       <c r="J41">
-        <v>10692.71</v>
+        <v>2792.4430000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>551.24800000000005</v>
+        <v>155.15299999999999</v>
       </c>
       <c r="O41">
-        <v>13505.886</v>
+        <v>3052.009</v>
       </c>
       <c r="P41">
-        <v>13026.803</v>
+        <v>2823.819</v>
       </c>
       <c r="Q41">
-        <v>84.334999999999994</v>
+        <v>-30.702999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>-4471.2039999999997</v>
+        <v>371.92700000000002</v>
       </c>
       <c r="U41">
-        <v>271.87400000000002</v>
+        <v>197.23599999999999</v>
       </c>
       <c r="V41">
-        <v>290.49</v>
+        <v>44.674999999999997</v>
       </c>
       <c r="W41">
-        <v>-52.027999999999999</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-262.12900000000002</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="Y41">
-        <v>2080.9160000000002</v>
+        <v>1.3</v>
       </c>
       <c r="Z41">
-        <v>171.75899999999999</v>
+        <v>1.464</v>
       </c>
       <c r="AA41">
-        <v>22.568000000000001</v>
+        <v>-34.488</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-39.161000000000001</v>
+      </c>
+      <c r="D42">
+        <v>165.49700000000001</v>
+      </c>
+      <c r="E42">
+        <v>36.558999999999997</v>
+      </c>
+      <c r="F42">
+        <v>110.258</v>
+      </c>
+      <c r="G42">
+        <v>142.71100000000001</v>
+      </c>
+      <c r="H42">
+        <v>3400.1750000000002</v>
+      </c>
+      <c r="I42">
+        <v>11.847</v>
+      </c>
+      <c r="J42">
+        <v>2827.45</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>130.584</v>
+      </c>
+      <c r="O42">
+        <v>3070.0419999999999</v>
+      </c>
+      <c r="P42">
+        <v>2828.95</v>
+      </c>
+      <c r="Q42">
+        <v>-132.982</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>720</v>
+      </c>
+      <c r="T42">
+        <v>330.13299999999998</v>
+      </c>
+      <c r="U42">
+        <v>64.254000000000005</v>
+      </c>
+      <c r="V42">
+        <v>58.33</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-15.782999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>1.5</v>
+      </c>
+      <c r="Z42">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AA42">
+        <v>-39.161000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-34.250999999999998</v>
+      </c>
+      <c r="D43">
+        <v>167.749</v>
+      </c>
+      <c r="E43">
+        <v>35.238999999999997</v>
+      </c>
+      <c r="F43">
+        <v>114.672</v>
+      </c>
+      <c r="G43">
+        <v>171.05500000000001</v>
+      </c>
+      <c r="H43">
+        <v>3466.2579999999998</v>
+      </c>
+      <c r="I43">
+        <v>13.032999999999999</v>
+      </c>
+      <c r="J43">
+        <v>3004.9989999999998</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-17.038</v>
+      </c>
+      <c r="N43">
+        <v>120.247</v>
+      </c>
+      <c r="O43">
+        <v>3240.8049999999998</v>
+      </c>
+      <c r="P43">
+        <v>3004.9989999999998</v>
+      </c>
+      <c r="Q43">
+        <v>30.85</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>225.453</v>
+      </c>
+      <c r="U43">
+        <v>95.103999999999999</v>
+      </c>
+      <c r="V43">
+        <v>53.188000000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>86.400999999999996</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>-34.250999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-29.818999999999999</v>
+      </c>
+      <c r="D44">
+        <v>171.053</v>
+      </c>
+      <c r="E44">
+        <v>33.634</v>
+      </c>
+      <c r="F44">
+        <v>119.917</v>
+      </c>
+      <c r="G44">
+        <v>349.97800000000001</v>
+      </c>
+      <c r="H44">
+        <v>3693.009</v>
+      </c>
+      <c r="I44">
+        <v>15.510999999999999</v>
+      </c>
+      <c r="J44">
+        <v>3319.3620000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>129.23099999999999</v>
+      </c>
+      <c r="O44">
+        <v>3567.8040000000001</v>
+      </c>
+      <c r="P44">
+        <v>3324.3620000000001</v>
+      </c>
+      <c r="Q44">
+        <v>182.64500000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>125.205</v>
+      </c>
+      <c r="U44">
+        <v>277.74900000000002</v>
+      </c>
+      <c r="V44">
+        <v>69.700999999999993</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>224.691</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-1.6859999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>-29.818999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-33.305</v>
+      </c>
+      <c r="D45">
+        <v>175.54900000000001</v>
+      </c>
+      <c r="E45">
+        <v>34.627000000000002</v>
+      </c>
+      <c r="F45">
+        <v>122.22799999999999</v>
+      </c>
+      <c r="G45">
+        <v>255.267</v>
+      </c>
+      <c r="H45">
+        <v>3609.1379999999999</v>
+      </c>
+      <c r="I45">
+        <v>15.973000000000001</v>
+      </c>
+      <c r="J45">
+        <v>3334.201</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>132.89400000000001</v>
+      </c>
+      <c r="O45">
+        <v>3590.6869999999999</v>
+      </c>
+      <c r="P45">
+        <v>3339.201</v>
+      </c>
+      <c r="Q45">
+        <v>-98.444000000000003</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>18.451000000000001</v>
+      </c>
+      <c r="U45">
+        <v>179.30500000000001</v>
+      </c>
+      <c r="V45">
+        <v>63.537999999999997</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-75.019000000000005</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>-33.305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-29.081</v>
+      </c>
+      <c r="D46">
+        <v>183.81899999999999</v>
+      </c>
+      <c r="E46">
+        <v>39.755000000000003</v>
+      </c>
+      <c r="F46">
+        <v>131.28800000000001</v>
+      </c>
+      <c r="G46">
+        <v>123.583</v>
+      </c>
+      <c r="H46">
+        <v>3606.3989999999999</v>
+      </c>
+      <c r="I46">
+        <v>12.755000000000001</v>
+      </c>
+      <c r="J46">
+        <v>3349.4850000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>126.881</v>
+      </c>
+      <c r="O46">
+        <v>3605.6480000000001</v>
+      </c>
+      <c r="P46">
+        <v>3357.585</v>
+      </c>
+      <c r="Q46">
+        <v>-131.989</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>814</v>
+      </c>
+      <c r="T46">
+        <v>0.751</v>
+      </c>
+      <c r="U46">
+        <v>47.316000000000003</v>
+      </c>
+      <c r="V46">
+        <v>62.631</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>5.9740000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>3.1</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>-29.081</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-22.631</v>
+      </c>
+      <c r="D47">
+        <v>192.49</v>
+      </c>
+      <c r="E47">
+        <v>40.908999999999999</v>
+      </c>
+      <c r="F47">
+        <v>139.953</v>
+      </c>
+      <c r="G47">
+        <v>598.87099999999998</v>
+      </c>
+      <c r="H47">
+        <v>4086.6289999999999</v>
+      </c>
+      <c r="I47">
+        <v>13.122999999999999</v>
+      </c>
+      <c r="J47">
+        <v>3565.2260000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1.5409999999999999</v>
+      </c>
+      <c r="N47">
+        <v>113.93300000000001</v>
+      </c>
+      <c r="O47">
+        <v>3815.0129999999999</v>
+      </c>
+      <c r="P47">
+        <v>3570.2260000000001</v>
+      </c>
+      <c r="Q47">
+        <v>478.238</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>271.61599999999999</v>
+      </c>
+      <c r="U47">
+        <v>525.55399999999997</v>
+      </c>
+      <c r="V47">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>488.09100000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>-22.631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>229.14699999999999</v>
+      </c>
+      <c r="E48">
+        <v>44.348999999999997</v>
+      </c>
+      <c r="F48">
+        <v>147.126</v>
+      </c>
+      <c r="G48">
+        <v>298.14800000000002</v>
+      </c>
+      <c r="H48">
+        <v>4793.66</v>
+      </c>
+      <c r="I48">
+        <v>16.832999999999998</v>
+      </c>
+      <c r="J48">
+        <v>3091.3820000000001</v>
+      </c>
+      <c r="K48">
+        <v>400</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1050.8320000000001</v>
+      </c>
+      <c r="O48">
+        <v>4301.4030000000002</v>
+      </c>
+      <c r="P48">
+        <v>4009.3879999999999</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>492.25700000000001</v>
+      </c>
+      <c r="U48">
+        <v>86.739000000000004</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>-53.472000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-52.445</v>
+      </c>
+      <c r="D49">
+        <v>238.60599999999999</v>
+      </c>
+      <c r="E49">
+        <v>54.970999999999997</v>
+      </c>
+      <c r="F49">
+        <v>161.208</v>
+      </c>
+      <c r="G49">
+        <v>1551.375</v>
+      </c>
+      <c r="H49">
+        <v>6083.2910000000002</v>
+      </c>
+      <c r="I49">
+        <v>19.863</v>
+      </c>
+      <c r="J49">
+        <v>4776.4390000000003</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>688.75</v>
+      </c>
+      <c r="O49">
+        <v>5630.9489999999996</v>
+      </c>
+      <c r="P49">
+        <v>5306.0339999999997</v>
+      </c>
+      <c r="Q49">
+        <v>1354.306</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>452.34199999999998</v>
+      </c>
+      <c r="U49">
+        <v>1441.0450000000001</v>
+      </c>
+      <c r="V49">
+        <v>89.722999999999999</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1228.873</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>-52.445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-52.488999999999997</v>
+      </c>
+      <c r="D50">
+        <v>293.84100000000001</v>
+      </c>
+      <c r="E50">
+        <v>62.743000000000002</v>
+      </c>
+      <c r="F50">
+        <v>185.857</v>
+      </c>
+      <c r="G50">
+        <v>383.38600000000002</v>
+      </c>
+      <c r="H50">
+        <v>6615.9110000000001</v>
+      </c>
+      <c r="I50">
+        <v>27.693999999999999</v>
+      </c>
+      <c r="J50">
+        <v>4880.7520000000004</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>863.68799999999999</v>
+      </c>
+      <c r="O50">
+        <v>5951.2089999999998</v>
+      </c>
+      <c r="P50">
+        <v>5356.1030000000001</v>
+      </c>
+      <c r="Q50">
+        <v>-1207.9459999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>1022</v>
+      </c>
+      <c r="T50">
+        <v>664.702</v>
+      </c>
+      <c r="U50">
+        <v>233.09899999999999</v>
+      </c>
+      <c r="V50">
+        <v>103.33799999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-2.6930000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>-52.488999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-22.376000000000001</v>
+      </c>
+      <c r="D51">
+        <v>313.07100000000003</v>
+      </c>
+      <c r="E51">
+        <v>76.340999999999994</v>
+      </c>
+      <c r="F51">
+        <v>206.554</v>
+      </c>
+      <c r="G51">
+        <v>265.77800000000002</v>
+      </c>
+      <c r="H51">
+        <v>6449.8850000000002</v>
+      </c>
+      <c r="I51">
+        <v>22.713999999999999</v>
+      </c>
+      <c r="J51">
+        <v>4885.3389999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-4.5</v>
+      </c>
+      <c r="N51">
+        <v>675.13800000000003</v>
+      </c>
+      <c r="O51">
+        <v>5753.24</v>
+      </c>
+      <c r="P51">
+        <v>5363.7929999999997</v>
+      </c>
+      <c r="Q51">
+        <v>-110.869</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>696.64499999999998</v>
+      </c>
+      <c r="U51">
+        <v>122.23</v>
+      </c>
+      <c r="V51">
+        <v>94.227999999999994</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>37.801000000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>-22.376000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-35.899000000000001</v>
+      </c>
+      <c r="D52">
+        <v>324.30500000000001</v>
+      </c>
+      <c r="E52">
+        <v>83.436999999999998</v>
+      </c>
+      <c r="F52">
+        <v>218.62299999999999</v>
+      </c>
+      <c r="G52">
+        <v>346.69600000000003</v>
+      </c>
+      <c r="H52">
+        <v>6484.5060000000003</v>
+      </c>
+      <c r="I52">
+        <v>24.100999999999999</v>
+      </c>
+      <c r="J52">
+        <v>5631.2089999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>212.898</v>
+      </c>
+      <c r="O52">
+        <v>6048.7690000000002</v>
+      </c>
+      <c r="P52">
+        <v>5641.2089999999998</v>
+      </c>
+      <c r="Q52">
+        <v>67.212000000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>435.73700000000002</v>
+      </c>
+      <c r="U52">
+        <v>189.44200000000001</v>
+      </c>
+      <c r="V52">
+        <v>133.93100000000001</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>15.196999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>-35.899000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>21.527999999999999</v>
+      </c>
+      <c r="D53">
+        <v>332.09399999999999</v>
+      </c>
+      <c r="E53">
+        <v>99.204999999999998</v>
+      </c>
+      <c r="F53">
+        <v>225.2</v>
+      </c>
+      <c r="G53">
+        <v>385.56099999999998</v>
+      </c>
+      <c r="H53">
+        <v>6584.4279999999999</v>
+      </c>
+      <c r="I53">
+        <v>26.167999999999999</v>
+      </c>
+      <c r="J53">
+        <v>5637.0780000000004</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>252.858</v>
+      </c>
+      <c r="O53">
+        <v>6135.9989999999998</v>
+      </c>
+      <c r="P53">
+        <v>5648.3280000000004</v>
+      </c>
+      <c r="Q53">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>448.42899999999997</v>
+      </c>
+      <c r="U53">
+        <v>189.40899999999999</v>
+      </c>
+      <c r="V53">
+        <v>114.889</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>21.530999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-19.161999999999999</v>
+      </c>
+      <c r="D54">
+        <v>335.39600000000002</v>
+      </c>
+      <c r="E54">
+        <v>99.203000000000003</v>
+      </c>
+      <c r="F54">
+        <v>227.03800000000001</v>
+      </c>
+      <c r="G54">
+        <v>338.20600000000002</v>
+      </c>
+      <c r="H54">
+        <v>6783.1880000000001</v>
+      </c>
+      <c r="I54">
+        <v>24.302</v>
+      </c>
+      <c r="J54">
+        <v>5394.7209999999995</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>747.673</v>
+      </c>
+      <c r="O54">
+        <v>6426.2219999999998</v>
+      </c>
+      <c r="P54">
+        <v>5876.607</v>
+      </c>
+      <c r="Q54">
+        <v>-67.296999999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>1117</v>
+      </c>
+      <c r="T54">
+        <v>356.96600000000001</v>
+      </c>
+      <c r="U54">
+        <v>122.11199999999999</v>
+      </c>
+      <c r="V54">
+        <v>154.53899999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>149.327</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-19.161999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1.407</v>
+      </c>
+      <c r="D55">
+        <v>345.55</v>
+      </c>
+      <c r="E55">
+        <v>90.215999999999994</v>
+      </c>
+      <c r="F55">
+        <v>239.822</v>
+      </c>
+      <c r="G55">
+        <v>511.07400000000001</v>
+      </c>
+      <c r="H55">
+        <v>7791.3419999999996</v>
+      </c>
+      <c r="I55">
+        <v>26.31</v>
+      </c>
+      <c r="J55">
+        <v>6365.982</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-683</v>
+      </c>
+      <c r="N55">
+        <v>756.779</v>
+      </c>
+      <c r="O55">
+        <v>7395.1540000000005</v>
+      </c>
+      <c r="P55">
+        <v>6869.7579999999998</v>
+      </c>
+      <c r="Q55">
+        <v>200.80199999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>396.18799999999999</v>
+      </c>
+      <c r="U55">
+        <v>322.91399999999999</v>
+      </c>
+      <c r="V55">
+        <v>160.215</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>964.16200000000003</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-9.468</v>
+      </c>
+      <c r="D56">
+        <v>383.42</v>
+      </c>
+      <c r="E56">
+        <v>98.486000000000004</v>
+      </c>
+      <c r="F56">
+        <v>273.75700000000001</v>
+      </c>
+      <c r="G56">
+        <v>308.19</v>
+      </c>
+      <c r="H56">
+        <v>7564.5829999999996</v>
+      </c>
+      <c r="I56">
+        <v>27.501999999999999</v>
+      </c>
+      <c r="J56">
+        <v>5778.8909999999996</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1340.01</v>
+      </c>
+      <c r="O56">
+        <v>7405.2950000000001</v>
+      </c>
+      <c r="P56">
+        <v>6859.0910000000003</v>
+      </c>
+      <c r="Q56">
+        <v>-215.262</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>159.28800000000001</v>
+      </c>
+      <c r="U56">
+        <v>107.652</v>
+      </c>
+      <c r="V56">
+        <v>174.73</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-305.16699999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>-9.4670000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-16.623999999999999</v>
+      </c>
+      <c r="D57">
+        <v>393.29300000000001</v>
+      </c>
+      <c r="E57">
+        <v>106.54</v>
+      </c>
+      <c r="F57">
+        <v>281.47500000000002</v>
+      </c>
+      <c r="G57">
+        <v>668.84500000000003</v>
+      </c>
+      <c r="H57">
+        <v>7808.9920000000002</v>
+      </c>
+      <c r="I57">
+        <v>31.324999999999999</v>
+      </c>
+      <c r="J57">
+        <v>6471.77</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1346.2270000000001</v>
+      </c>
+      <c r="O57">
+        <v>8106.6090000000004</v>
+      </c>
+      <c r="P57">
+        <v>7550.0879999999997</v>
+      </c>
+      <c r="Q57">
+        <v>342.60500000000002</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>-297.61700000000002</v>
+      </c>
+      <c r="U57">
+        <v>450.25700000000001</v>
+      </c>
+      <c r="V57">
+        <v>150.34299999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>331.36799999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>-16.623999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>0.39</v>
+      </c>
+      <c r="D58">
+        <v>404.73399999999998</v>
+      </c>
+      <c r="E58">
+        <v>134.346</v>
+      </c>
+      <c r="F58">
+        <v>295.66000000000003</v>
+      </c>
+      <c r="G58">
+        <v>321.339</v>
+      </c>
+      <c r="H58">
+        <v>7841.125</v>
+      </c>
+      <c r="I58">
+        <v>42.850999999999999</v>
+      </c>
+      <c r="J58">
+        <v>7828.299</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>331.05</v>
+      </c>
+      <c r="O58">
+        <v>8501.9249999999993</v>
+      </c>
+      <c r="P58">
+        <v>7860.799</v>
+      </c>
+      <c r="Q58">
+        <v>-410.81400000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>1259</v>
+      </c>
+      <c r="T58">
+        <v>-660.8</v>
+      </c>
+      <c r="U58">
+        <v>39.442999999999998</v>
+      </c>
+      <c r="V58">
+        <v>186.35499999999999</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>20.888999999999999</v>
+      </c>
+      <c r="AA58">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-79.03</v>
+      </c>
+      <c r="D59">
+        <v>410.09399999999999</v>
+      </c>
+      <c r="E59">
+        <v>120.67700000000001</v>
+      </c>
+      <c r="F59">
+        <v>297.64499999999998</v>
+      </c>
+      <c r="G59">
+        <v>320.197</v>
+      </c>
+      <c r="H59">
+        <v>7527.299</v>
+      </c>
+      <c r="I59">
+        <v>33.805</v>
+      </c>
+      <c r="J59">
+        <v>7929.8289999999997</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-32.5</v>
+      </c>
+      <c r="N59">
+        <v>286.476</v>
+      </c>
+      <c r="O59">
+        <v>8564.0859999999993</v>
+      </c>
+      <c r="P59">
+        <v>7963.5789999999997</v>
+      </c>
+      <c r="Q59">
+        <v>22.928000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-1036.787</v>
+      </c>
+      <c r="U59">
+        <v>62.371000000000002</v>
+      </c>
+      <c r="V59">
+        <v>178.40799999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-31.529</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-79.03</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>28.305</v>
+      </c>
+      <c r="D60">
+        <v>410.70400000000001</v>
+      </c>
+      <c r="E60">
+        <v>117.645</v>
+      </c>
+      <c r="F60">
+        <v>292.81200000000001</v>
+      </c>
+      <c r="G60">
+        <v>343.78300000000002</v>
+      </c>
+      <c r="H60">
+        <v>7751.8630000000003</v>
+      </c>
+      <c r="I60">
+        <v>29.809000000000001</v>
+      </c>
+      <c r="J60">
+        <v>8216.4</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>314.05399999999997</v>
+      </c>
+      <c r="O60">
+        <v>8885.0949999999993</v>
+      </c>
+      <c r="P60">
+        <v>8256.4</v>
+      </c>
+      <c r="Q60">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>-1133.232</v>
+      </c>
+      <c r="U60">
+        <v>69.846000000000004</v>
+      </c>
+      <c r="V60">
+        <v>197.124</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>125.313</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>28.305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-155.94800000000001</v>
+      </c>
+      <c r="D61">
+        <v>410.73500000000001</v>
+      </c>
+      <c r="E61">
+        <v>99.183000000000007</v>
+      </c>
+      <c r="F61">
+        <v>298.63799999999998</v>
+      </c>
+      <c r="G61">
+        <v>334.16899999999998</v>
+      </c>
+      <c r="H61">
+        <v>7396.7569999999996</v>
+      </c>
+      <c r="I61">
+        <v>32.197000000000003</v>
+      </c>
+      <c r="J61">
+        <v>8446.85</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>288.267</v>
+      </c>
+      <c r="O61">
+        <v>9094.4130000000005</v>
+      </c>
+      <c r="P61">
+        <v>8486.85</v>
+      </c>
+      <c r="Q61">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>-1697.6559999999999</v>
+      </c>
+      <c r="U61">
+        <v>73.271000000000001</v>
+      </c>
+      <c r="V61">
+        <v>159.20500000000001</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-15.271000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>-155.946</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>31.016999999999999</v>
+      </c>
+      <c r="D62">
+        <v>406.94099999999997</v>
+      </c>
+      <c r="E62">
+        <v>100.26</v>
+      </c>
+      <c r="F62">
+        <v>293.12099999999998</v>
+      </c>
+      <c r="G62">
+        <v>293.25400000000002</v>
+      </c>
+      <c r="H62">
+        <v>7312.98</v>
+      </c>
+      <c r="I62">
+        <v>27.105</v>
+      </c>
+      <c r="J62">
+        <v>8432.07</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>273.37099999999998</v>
+      </c>
+      <c r="O62">
+        <v>9019.1239999999998</v>
+      </c>
+      <c r="P62">
+        <v>8452.07</v>
+      </c>
+      <c r="Q62">
+        <v>14.895</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>1310</v>
+      </c>
+      <c r="T62">
+        <v>-1706.144</v>
+      </c>
+      <c r="U62">
+        <v>118.039</v>
+      </c>
+      <c r="V62">
+        <v>188.29300000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-2.762</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>89.727999999999994</v>
+      </c>
+      <c r="AA62">
+        <v>31.016999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>53.639000000000003</v>
+      </c>
+      <c r="D63">
+        <v>399.76900000000001</v>
+      </c>
+      <c r="E63">
+        <v>100.26300000000001</v>
+      </c>
+      <c r="F63">
+        <v>293.99200000000002</v>
+      </c>
+      <c r="G63">
+        <v>281.84399999999999</v>
+      </c>
+      <c r="H63">
+        <v>7371.6440000000002</v>
+      </c>
+      <c r="I63">
+        <v>20.716000000000001</v>
+      </c>
+      <c r="J63">
+        <v>8452.27</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-55</v>
+      </c>
+      <c r="N63">
+        <v>233.06899999999999</v>
+      </c>
+      <c r="O63">
+        <v>9002.2039999999997</v>
+      </c>
+      <c r="P63">
+        <v>8472.27</v>
+      </c>
+      <c r="Q63">
+        <v>-14.986000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-1630.56</v>
+      </c>
+      <c r="U63">
+        <v>103.26600000000001</v>
+      </c>
+      <c r="V63">
+        <v>144.64400000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-33.323</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>53.639000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>32.709000000000003</v>
+      </c>
+      <c r="D64">
+        <v>405.53199999999998</v>
+      </c>
+      <c r="E64">
+        <v>77.790000000000006</v>
+      </c>
+      <c r="F64">
+        <v>296.14400000000001</v>
+      </c>
+      <c r="G64">
+        <v>291.03800000000001</v>
+      </c>
+      <c r="H64">
+        <v>7436.3220000000001</v>
+      </c>
+      <c r="I64">
+        <v>25.524000000000001</v>
+      </c>
+      <c r="J64">
+        <v>7913.8789999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>804.90599999999995</v>
+      </c>
+      <c r="O64">
+        <v>9043.8989999999994</v>
+      </c>
+      <c r="P64">
+        <v>8482.8029999999999</v>
+      </c>
+      <c r="Q64">
+        <v>31.003</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>-1607.577</v>
+      </c>
+      <c r="U64">
+        <v>133.95599999999999</v>
+      </c>
+      <c r="V64">
+        <v>210.09100000000001</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-90.977000000000004</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>32.710999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-15.372</v>
+      </c>
+      <c r="D65">
+        <v>411.31900000000002</v>
+      </c>
+      <c r="E65">
+        <v>86.647999999999996</v>
+      </c>
+      <c r="F65">
+        <v>302.88099999999997</v>
+      </c>
+      <c r="G65">
+        <v>857.97799999999995</v>
+      </c>
+      <c r="H65">
+        <v>7915.7219999999998</v>
+      </c>
+      <c r="I65">
+        <v>23.904</v>
+      </c>
+      <c r="J65">
+        <v>8515.3919999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>738.76599999999996</v>
+      </c>
+      <c r="O65">
+        <v>9584.7839999999997</v>
+      </c>
+      <c r="P65">
+        <v>9031.268</v>
+      </c>
+      <c r="Q65">
+        <v>558.29499999999996</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>-1669.0619999999999</v>
+      </c>
+      <c r="U65">
+        <v>165.22499999999999</v>
+      </c>
+      <c r="V65">
+        <v>172.49600000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>457.834</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-15.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>5.2619999999999996</v>
+      </c>
+      <c r="D66">
+        <v>416.505</v>
+      </c>
+      <c r="E66">
+        <v>89.471000000000004</v>
+      </c>
+      <c r="F66">
+        <v>306.072</v>
+      </c>
+      <c r="G66">
+        <v>324.57100000000003</v>
+      </c>
+      <c r="H66">
+        <v>7360.9449999999997</v>
+      </c>
+      <c r="I66">
+        <v>28.32</v>
+      </c>
+      <c r="J66">
+        <v>8148.4260000000004</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>873.447</v>
+      </c>
+      <c r="O66">
+        <v>9356.866</v>
+      </c>
+      <c r="P66">
+        <v>8775.5830000000005</v>
+      </c>
+      <c r="Q66">
+        <v>-534.96100000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>1241</v>
+      </c>
+      <c r="T66">
+        <v>-1995.921</v>
+      </c>
+      <c r="U66">
+        <v>146.10900000000001</v>
+      </c>
+      <c r="V66">
+        <v>215.29400000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-622.09100000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AA66">
+        <v>5.2619999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>37.597999999999999</v>
+      </c>
+      <c r="D67">
+        <v>423.363</v>
+      </c>
+      <c r="E67">
+        <v>87.322000000000003</v>
+      </c>
+      <c r="F67">
+        <v>309.42399999999998</v>
+      </c>
+      <c r="G67">
+        <v>301.267</v>
+      </c>
+      <c r="H67">
+        <v>7297.45</v>
+      </c>
+      <c r="I67">
+        <v>29.628</v>
+      </c>
+      <c r="J67">
+        <v>8646.1740000000009</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-115</v>
+      </c>
+      <c r="N67">
+        <v>228.59299999999999</v>
+      </c>
+      <c r="O67">
+        <v>9213.9439999999995</v>
+      </c>
+      <c r="P67">
+        <v>8666.1740000000009</v>
+      </c>
+      <c r="Q67">
+        <v>-20.498999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-1916.4939999999999</v>
+      </c>
+      <c r="U67">
+        <v>132.22200000000001</v>
+      </c>
+      <c r="V67">
+        <v>172.30600000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-112.27200000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>37.597999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>9.234</v>
+      </c>
+      <c r="D68">
+        <v>427.29399999999998</v>
+      </c>
+      <c r="E68">
+        <v>88.043000000000006</v>
+      </c>
+      <c r="F68">
+        <v>315.64400000000001</v>
+      </c>
+      <c r="G68">
+        <v>336.464</v>
+      </c>
+      <c r="H68">
+        <v>7308.8530000000001</v>
+      </c>
+      <c r="I68">
+        <v>29.155000000000001</v>
+      </c>
+      <c r="J68">
+        <v>7906.1880000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1046.4190000000001</v>
+      </c>
+      <c r="O68">
+        <v>9294.5339999999997</v>
+      </c>
+      <c r="P68">
+        <v>8678.7049999999999</v>
+      </c>
+      <c r="Q68">
+        <v>31.722000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>-1985.681</v>
+      </c>
+      <c r="U68">
+        <v>164.52099999999999</v>
+      </c>
+      <c r="V68">
+        <v>231.893</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-111.83799999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>9.2330000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>49.161999999999999</v>
+      </c>
+      <c r="D69">
+        <v>433.94499999999999</v>
+      </c>
+      <c r="E69">
+        <v>99.924999999999997</v>
+      </c>
+      <c r="F69">
+        <v>320.89400000000001</v>
+      </c>
+      <c r="G69">
+        <v>324.06599999999997</v>
+      </c>
+      <c r="H69">
+        <v>7300.47</v>
+      </c>
+      <c r="I69">
+        <v>32.429000000000002</v>
+      </c>
+      <c r="J69">
+        <v>8185.5119999999997</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1022.715</v>
+      </c>
+      <c r="O69">
+        <v>9558.268</v>
+      </c>
+      <c r="P69">
+        <v>8958.8009999999995</v>
+      </c>
+      <c r="Q69">
+        <v>-24.731000000000002</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-2257.7979999999998</v>
+      </c>
+      <c r="U69">
+        <v>139.71100000000001</v>
+      </c>
+      <c r="V69">
+        <v>187.273</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-93.492000000000004</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-0.38200000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>49.161000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>7.66</v>
+      </c>
+      <c r="D70">
+        <v>443.072</v>
+      </c>
+      <c r="E70">
+        <v>108.11</v>
+      </c>
+      <c r="F70">
+        <v>323.03300000000002</v>
+      </c>
+      <c r="G70">
+        <v>259.53300000000002</v>
+      </c>
+      <c r="H70">
+        <v>7320.2049999999999</v>
+      </c>
+      <c r="I70">
+        <v>33.334000000000003</v>
+      </c>
+      <c r="J70">
+        <v>9290.6859999999997</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>278.90499999999997</v>
+      </c>
+      <c r="O70">
+        <v>9919.3189999999995</v>
+      </c>
+      <c r="P70">
+        <v>9310.6859999999997</v>
+      </c>
+      <c r="Q70">
+        <v>-68.167000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>1291</v>
+      </c>
+      <c r="T70">
+        <v>-2599.114</v>
+      </c>
+      <c r="U70">
+        <v>68.783000000000001</v>
+      </c>
+      <c r="V70">
+        <v>226.99799999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>23.027999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0.216</v>
+      </c>
+      <c r="AA70">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>31.545000000000002</v>
+      </c>
+      <c r="D71">
+        <v>458.30200000000002</v>
+      </c>
+      <c r="E71">
+        <v>114.142</v>
+      </c>
+      <c r="F71">
+        <v>339.92099999999999</v>
+      </c>
+      <c r="G71">
+        <v>302.77999999999997</v>
+      </c>
+      <c r="H71">
+        <v>7405.0820000000003</v>
+      </c>
+      <c r="I71">
+        <v>29.553999999999998</v>
+      </c>
+      <c r="J71">
+        <v>9363.6859999999997</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-825</v>
+      </c>
+      <c r="N71">
+        <v>250.928</v>
+      </c>
+      <c r="O71">
+        <v>9993.3230000000003</v>
+      </c>
+      <c r="P71">
+        <v>9383.6859999999997</v>
+      </c>
+      <c r="Q71">
+        <v>60.524999999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-2588.241</v>
+      </c>
+      <c r="U71">
+        <v>109.35</v>
+      </c>
+      <c r="V71">
+        <v>178.577</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>34.048999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-0.68600000000000005</v>
+      </c>
+      <c r="AA71">
+        <v>31.545000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-57.390999999999998</v>
+      </c>
+      <c r="D72">
+        <v>456.32299999999998</v>
+      </c>
+      <c r="E72">
+        <v>101.15600000000001</v>
+      </c>
+      <c r="F72">
+        <v>338.77600000000001</v>
+      </c>
+      <c r="G72">
+        <v>326.87599999999998</v>
+      </c>
+      <c r="H72">
+        <v>7289.3779999999997</v>
+      </c>
+      <c r="I72">
+        <v>32.381999999999998</v>
+      </c>
+      <c r="J72">
+        <v>9675.7379999999994</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>277.81</v>
+      </c>
+      <c r="O72">
+        <v>10331.513000000001</v>
+      </c>
+      <c r="P72">
+        <v>9699.7379999999994</v>
+      </c>
+      <c r="Q72">
+        <v>11.542999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-3042.1350000000002</v>
+      </c>
+      <c r="U72">
+        <v>134.65100000000001</v>
+      </c>
+      <c r="V72">
+        <v>246.47900000000001</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-7.3319999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-4.1059999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>-57.390999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>16.143999999999998</v>
+      </c>
+      <c r="D73">
+        <v>467.221</v>
+      </c>
+      <c r="E73">
+        <v>107.101</v>
+      </c>
+      <c r="F73">
+        <v>347.48500000000001</v>
+      </c>
+      <c r="G73">
+        <v>327.66300000000001</v>
+      </c>
+      <c r="H73">
+        <v>7213.8230000000003</v>
+      </c>
+      <c r="I73">
+        <v>32.087000000000003</v>
+      </c>
+      <c r="J73">
+        <v>9710.1450000000004</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>265.512</v>
+      </c>
+      <c r="O73">
+        <v>10358.906000000001</v>
+      </c>
+      <c r="P73">
+        <v>9734.1450000000004</v>
+      </c>
+      <c r="Q73">
+        <v>-13.039</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-3145.0830000000001</v>
+      </c>
+      <c r="U73">
+        <v>136.221</v>
+      </c>
+      <c r="V73">
+        <v>199.08699999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-57.905999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>16.143999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>57.152999999999999</v>
+      </c>
+      <c r="D74">
+        <v>483.84899999999999</v>
+      </c>
+      <c r="E74">
+        <v>134.82</v>
+      </c>
+      <c r="F74">
+        <v>359.75700000000001</v>
+      </c>
+      <c r="G74">
+        <v>373.85399999999998</v>
+      </c>
+      <c r="H74">
+        <v>7213.7070000000003</v>
+      </c>
+      <c r="I74">
+        <v>34.308</v>
+      </c>
+      <c r="J74">
+        <v>8996.8250000000007</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1206.279</v>
+      </c>
+      <c r="O74">
+        <v>10590.53</v>
+      </c>
+      <c r="P74">
+        <v>9938.5529999999999</v>
+      </c>
+      <c r="Q74">
+        <v>14.976000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>1347</v>
+      </c>
+      <c r="T74">
+        <v>-3376.8229999999999</v>
+      </c>
+      <c r="U74">
+        <v>143.44399999999999</v>
+      </c>
+      <c r="V74">
+        <v>226.47499999999999</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-117.348</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-2.16</v>
+      </c>
+      <c r="AA74">
+        <v>57.152999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>25.989000000000001</v>
+      </c>
+      <c r="D75">
+        <v>493.29300000000001</v>
+      </c>
+      <c r="E75">
+        <v>136.499</v>
+      </c>
+      <c r="F75">
+        <v>367.041</v>
+      </c>
+      <c r="G75">
+        <v>300.56900000000002</v>
+      </c>
+      <c r="H75">
+        <v>9312.759</v>
+      </c>
+      <c r="I75">
+        <v>34.545000000000002</v>
+      </c>
+      <c r="J75">
+        <v>8795.9060000000009</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-215</v>
+      </c>
+      <c r="N75">
+        <v>1404.654</v>
+      </c>
+      <c r="O75">
+        <v>12615.54</v>
+      </c>
+      <c r="P75">
+        <v>12249.927</v>
+      </c>
+      <c r="Q75">
+        <v>-34.429000000000002</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-3302.7809999999999</v>
+      </c>
+      <c r="U75">
+        <v>117.613</v>
+      </c>
+      <c r="V75">
+        <v>222.66499999999999</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-158.047</v>
+      </c>
+      <c r="Y75">
+        <v>2282.8029999999999</v>
+      </c>
+      <c r="Z75">
+        <v>0.504</v>
+      </c>
+      <c r="AA75">
+        <v>25.989000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>31.972999999999999</v>
+      </c>
+      <c r="D76">
+        <v>500.14699999999999</v>
+      </c>
+      <c r="E76">
+        <v>143.05099999999999</v>
+      </c>
+      <c r="F76">
+        <v>373.16</v>
+      </c>
+      <c r="G76">
+        <v>290.19200000000001</v>
+      </c>
+      <c r="H76">
+        <v>9269.4150000000009</v>
+      </c>
+      <c r="I76">
+        <v>41.27</v>
+      </c>
+      <c r="J76">
+        <v>8801.0499999999993</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1428.1379999999999</v>
+      </c>
+      <c r="O76">
+        <v>12608.761</v>
+      </c>
+      <c r="P76">
+        <v>12211.415999999999</v>
+      </c>
+      <c r="Q76">
+        <v>-17.059000000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-3339.346</v>
+      </c>
+      <c r="U76">
+        <v>101.836</v>
+      </c>
+      <c r="V76">
+        <v>243.441</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-106.416</v>
+      </c>
+      <c r="Y76">
+        <v>2235.5239999999999</v>
+      </c>
+      <c r="Z76">
+        <v>-30.545999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>31.972999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>21.678000000000001</v>
+      </c>
+      <c r="D77">
+        <v>507.54700000000003</v>
+      </c>
+      <c r="E77">
+        <v>151.02799999999999</v>
+      </c>
+      <c r="F77">
+        <v>379.346</v>
+      </c>
+      <c r="G77">
+        <v>328.59800000000001</v>
+      </c>
+      <c r="H77">
+        <v>9201.1380000000008</v>
+      </c>
+      <c r="I77">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="J77">
+        <v>9883.902</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>510.15199999999999</v>
+      </c>
+      <c r="O77">
+        <v>12747.434999999999</v>
+      </c>
+      <c r="P77">
+        <v>12312.611000000001</v>
+      </c>
+      <c r="Q77">
+        <v>31.867999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-3546.297</v>
+      </c>
+      <c r="U77">
+        <v>128.77799999999999</v>
+      </c>
+      <c r="V77">
+        <v>238.87799999999999</v>
+      </c>
+      <c r="W77">
+        <v>-41.872999999999998</v>
+      </c>
+      <c r="X77">
+        <v>-43.118000000000002</v>
+      </c>
+      <c r="Y77">
+        <v>2174.5120000000002</v>
+      </c>
+      <c r="Z77">
+        <v>16.684000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>21.678999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>67.350999999999999</v>
+      </c>
+      <c r="D78">
+        <v>513.65800000000002</v>
+      </c>
+      <c r="E78">
+        <v>158.43799999999999</v>
+      </c>
+      <c r="F78">
+        <v>386.84100000000001</v>
+      </c>
+      <c r="G78">
+        <v>334.27100000000002</v>
+      </c>
+      <c r="H78">
+        <v>9759.9410000000007</v>
+      </c>
+      <c r="I78">
+        <v>31.846</v>
+      </c>
+      <c r="J78">
+        <v>9902.616</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1048.2929999999999</v>
+      </c>
+      <c r="O78">
+        <v>13410.896000000001</v>
+      </c>
+      <c r="P78">
+        <v>12951.120999999999</v>
+      </c>
+      <c r="Q78">
+        <v>-17.559999999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>1475</v>
+      </c>
+      <c r="T78">
+        <v>-3650.9549999999999</v>
+      </c>
+      <c r="U78">
+        <v>108.309</v>
+      </c>
+      <c r="V78">
+        <v>265.06099999999998</v>
+      </c>
+      <c r="W78">
+        <v>-41.514000000000003</v>
+      </c>
+      <c r="X78">
+        <v>245.267</v>
+      </c>
+      <c r="Y78">
+        <v>2279.4</v>
+      </c>
+      <c r="Z78">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>67.350999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-127.05800000000001</v>
+      </c>
+      <c r="D79">
+        <v>517.06700000000001</v>
+      </c>
+      <c r="E79">
+        <v>126.023</v>
+      </c>
+      <c r="F79">
+        <v>397.75400000000002</v>
+      </c>
+      <c r="G79">
+        <v>395.05799999999999</v>
+      </c>
+      <c r="H79">
+        <v>9359.5020000000004</v>
+      </c>
+      <c r="I79">
+        <v>26.939</v>
+      </c>
+      <c r="J79">
+        <v>10309.252</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1264.143</v>
+      </c>
+      <c r="N79">
+        <v>1019.552</v>
+      </c>
+      <c r="O79">
+        <v>13662.254000000001</v>
+      </c>
+      <c r="P79">
+        <v>13217.245000000001</v>
+      </c>
+      <c r="Q79">
+        <v>88.495000000000005</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-4302.7520000000004</v>
+      </c>
+      <c r="U79">
+        <v>184.137</v>
+      </c>
+      <c r="V79">
+        <v>277.74200000000002</v>
+      </c>
+      <c r="W79">
+        <v>-52.201000000000001</v>
+      </c>
+      <c r="X79">
+        <v>-43.335000000000001</v>
+      </c>
+      <c r="Y79">
+        <v>2153.9169999999999</v>
+      </c>
+      <c r="Z79">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="AA79">
+        <v>-127.05800000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>22.811</v>
+      </c>
+      <c r="D80">
+        <v>507.226</v>
+      </c>
+      <c r="E80">
+        <v>110.172</v>
+      </c>
+      <c r="F80">
+        <v>391.09</v>
+      </c>
+      <c r="G80">
+        <v>398.233</v>
+      </c>
+      <c r="H80">
+        <v>9390.5390000000007</v>
+      </c>
+      <c r="I80">
+        <v>26.353000000000002</v>
+      </c>
+      <c r="J80">
+        <v>10831.087</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>552.65899999999999</v>
+      </c>
+      <c r="O80">
+        <v>13681.182000000001</v>
+      </c>
+      <c r="P80">
+        <v>13198.539000000001</v>
+      </c>
+      <c r="Q80">
+        <v>22.023</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-4290.643</v>
+      </c>
+      <c r="U80">
+        <v>207.48699999999999</v>
+      </c>
+      <c r="V80">
+        <v>314.67599999999999</v>
+      </c>
+      <c r="W80">
+        <v>-51.97</v>
+      </c>
+      <c r="X80">
+        <v>-8.7859999999999996</v>
+      </c>
+      <c r="Y80">
+        <v>2113.6019999999999</v>
+      </c>
+      <c r="Z80">
+        <v>-225.01400000000001</v>
+      </c>
+      <c r="AA80">
+        <v>22.812999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>22.568999999999999</v>
+      </c>
+      <c r="D81">
+        <v>522.94000000000005</v>
+      </c>
+      <c r="E81">
+        <v>95.150999999999996</v>
+      </c>
+      <c r="F81">
+        <v>397.29700000000003</v>
+      </c>
+      <c r="G81">
+        <v>458.59100000000001</v>
+      </c>
+      <c r="H81">
+        <v>9034.6820000000007</v>
+      </c>
+      <c r="I81">
+        <v>29.23</v>
+      </c>
+      <c r="J81">
+        <v>10692.71</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>551.24800000000005</v>
+      </c>
+      <c r="O81">
+        <v>13505.886</v>
+      </c>
+      <c r="P81">
+        <v>13026.803</v>
+      </c>
+      <c r="Q81">
+        <v>84.334999999999994</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>-4471.2039999999997</v>
+      </c>
+      <c r="U81">
+        <v>271.87400000000002</v>
+      </c>
+      <c r="V81">
+        <v>290.49</v>
+      </c>
+      <c r="W81">
+        <v>-52.027999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-262.12900000000002</v>
+      </c>
+      <c r="Y81">
+        <v>2080.9160000000002</v>
+      </c>
+      <c r="Z81">
+        <v>171.75899999999999</v>
+      </c>
+      <c r="AA81">
+        <v>22.568000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>105.782</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>535.90700000000004</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>108.884</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>403.89100000000002</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>472.99</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9158.018</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>109.96899999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>11071.796</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>614.80100000000004</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>13967.206</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>13426.196</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>6.835</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>1483</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>-4809.1880000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>308.56</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>243.125</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-51.49</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-154.767</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>2094.3629999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>3.7679999999999998</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>105.782</v>
       </c>
     </row>
